--- a/database/industries/palayesh/shebandar/product/monthly_seprated.xlsx
+++ b/database/industries/palayesh/shebandar/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\palayesh\shebandar\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\palayesh\shebandar\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384A8D95-581F-49F2-9B8A-99FDC4D4175D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A70EC1-4E1B-413D-86D1-0A9184587DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="104">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1549,95 +1549,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>219731</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>239091</v>
       </c>
       <c r="AA11" s="11">
-        <v>219731</v>
+        <v>191703</v>
       </c>
       <c r="AB11" s="11">
-        <v>239091</v>
+        <v>212365</v>
       </c>
       <c r="AC11" s="11">
-        <v>191703</v>
+        <v>192422</v>
       </c>
       <c r="AD11" s="11">
-        <v>212365</v>
+        <v>215958</v>
       </c>
       <c r="AE11" s="11">
-        <v>192422</v>
+        <v>207431</v>
       </c>
       <c r="AF11" s="11">
-        <v>215958</v>
+        <v>246950</v>
       </c>
       <c r="AG11" s="11">
-        <v>207431</v>
+        <v>223297</v>
       </c>
       <c r="AH11" s="11">
-        <v>246950</v>
+        <v>279749</v>
       </c>
       <c r="AI11" s="11">
-        <v>223297</v>
+        <v>244330</v>
       </c>
       <c r="AJ11" s="11">
-        <v>279749</v>
+        <v>219850</v>
       </c>
       <c r="AK11" s="11">
-        <v>244330</v>
+        <v>248942</v>
       </c>
       <c r="AL11" s="11">
-        <v>219850</v>
+        <v>206717</v>
       </c>
       <c r="AM11" s="11">
-        <v>248942</v>
+        <v>257568</v>
       </c>
       <c r="AN11" s="11">
-        <v>206717</v>
+        <v>251171</v>
       </c>
       <c r="AO11" s="11">
-        <v>257568</v>
+        <v>143064</v>
       </c>
       <c r="AP11" s="11">
-        <v>251171</v>
+        <v>245624</v>
       </c>
       <c r="AQ11" s="11">
-        <v>143064</v>
+        <v>254069</v>
       </c>
       <c r="AR11" s="11">
-        <v>245624</v>
+        <v>1710003</v>
       </c>
       <c r="AS11" s="11">
-        <v>254069</v>
+        <v>374630</v>
       </c>
       <c r="AT11" s="11">
-        <v>239988</v>
+        <v>347572</v>
       </c>
       <c r="AU11" s="11">
-        <v>374630</v>
+        <v>375755</v>
       </c>
       <c r="AV11" s="11">
-        <v>311951</v>
+        <v>361716</v>
       </c>
       <c r="AW11" s="11">
-        <v>375755</v>
+        <v>806168</v>
       </c>
       <c r="AX11" s="11">
-        <v>361716</v>
+        <v>407562</v>
       </c>
       <c r="AY11" s="11">
-        <v>403084</v>
+        <v>418903</v>
       </c>
       <c r="AZ11" s="11">
-        <v>407562</v>
+        <v>390943</v>
       </c>
       <c r="BA11" s="11">
-        <v>418903</v>
+        <v>380622</v>
       </c>
       <c r="BB11" s="11">
-        <v>390943</v>
+        <v>362678</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1708,95 +1708,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>11066</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>14227</v>
       </c>
       <c r="AA12" s="13">
-        <v>11066</v>
+        <v>10773</v>
       </c>
       <c r="AB12" s="13">
-        <v>14227</v>
+        <v>18016</v>
       </c>
       <c r="AC12" s="13">
-        <v>10773</v>
+        <v>18469</v>
       </c>
       <c r="AD12" s="13">
-        <v>18016</v>
+        <v>8151</v>
       </c>
       <c r="AE12" s="13">
-        <v>18469</v>
+        <v>26149</v>
       </c>
       <c r="AF12" s="13">
-        <v>8151</v>
+        <v>18080</v>
       </c>
       <c r="AG12" s="13">
-        <v>26149</v>
+        <v>20762</v>
       </c>
       <c r="AH12" s="13">
-        <v>18080</v>
+        <v>18529</v>
       </c>
       <c r="AI12" s="13">
-        <v>20762</v>
+        <v>16891</v>
       </c>
       <c r="AJ12" s="13">
-        <v>18529</v>
+        <v>11664</v>
       </c>
       <c r="AK12" s="13">
-        <v>16891</v>
+        <v>17488</v>
       </c>
       <c r="AL12" s="13">
-        <v>11664</v>
+        <v>17274</v>
       </c>
       <c r="AM12" s="13">
-        <v>17488</v>
+        <v>9845</v>
       </c>
       <c r="AN12" s="13">
-        <v>17274</v>
+        <v>14099</v>
       </c>
       <c r="AO12" s="13">
-        <v>9845</v>
+        <v>24607</v>
       </c>
       <c r="AP12" s="13">
-        <v>14099</v>
+        <v>28018</v>
       </c>
       <c r="AQ12" s="13">
-        <v>24607</v>
+        <v>22879</v>
       </c>
       <c r="AR12" s="13">
-        <v>28018</v>
+        <v>19938</v>
       </c>
       <c r="AS12" s="13">
-        <v>22879</v>
+        <v>23589</v>
       </c>
       <c r="AT12" s="13">
-        <v>21484</v>
+        <v>27989</v>
       </c>
       <c r="AU12" s="13">
-        <v>23589</v>
+        <v>4691</v>
       </c>
       <c r="AV12" s="13">
-        <v>27989</v>
+        <v>11308</v>
       </c>
       <c r="AW12" s="13">
-        <v>4691</v>
+        <v>40188</v>
       </c>
       <c r="AX12" s="13">
-        <v>11308</v>
+        <v>23103</v>
       </c>
       <c r="AY12" s="13">
-        <v>20094</v>
+        <v>13148</v>
       </c>
       <c r="AZ12" s="13">
-        <v>23103</v>
+        <v>12918</v>
       </c>
       <c r="BA12" s="13">
-        <v>13148</v>
+        <v>14495</v>
       </c>
       <c r="BB12" s="13">
-        <v>12918</v>
+        <v>17345</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1867,95 +1867,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>222496</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>189858</v>
       </c>
       <c r="AA13" s="11">
-        <v>222496</v>
+        <v>162243</v>
       </c>
       <c r="AB13" s="11">
-        <v>189858</v>
+        <v>137486</v>
       </c>
       <c r="AC13" s="11">
-        <v>162243</v>
+        <v>116273</v>
       </c>
       <c r="AD13" s="11">
-        <v>137486</v>
+        <v>150455</v>
       </c>
       <c r="AE13" s="11">
-        <v>116273</v>
+        <v>160148</v>
       </c>
       <c r="AF13" s="11">
-        <v>150455</v>
+        <v>115036</v>
       </c>
       <c r="AG13" s="11">
-        <v>160148</v>
+        <v>147871</v>
       </c>
       <c r="AH13" s="11">
-        <v>115036</v>
+        <v>121705</v>
       </c>
       <c r="AI13" s="11">
-        <v>147871</v>
+        <v>163264</v>
       </c>
       <c r="AJ13" s="11">
-        <v>121705</v>
+        <v>121469</v>
       </c>
       <c r="AK13" s="11">
-        <v>163264</v>
+        <v>163767</v>
       </c>
       <c r="AL13" s="11">
-        <v>121469</v>
+        <v>133170</v>
       </c>
       <c r="AM13" s="11">
-        <v>163767</v>
+        <v>121478</v>
       </c>
       <c r="AN13" s="11">
-        <v>133170</v>
+        <v>136643</v>
       </c>
       <c r="AO13" s="11">
-        <v>121478</v>
+        <v>87416</v>
       </c>
       <c r="AP13" s="11">
-        <v>136643</v>
+        <v>109317</v>
       </c>
       <c r="AQ13" s="11">
-        <v>87416</v>
+        <v>132472</v>
       </c>
       <c r="AR13" s="11">
-        <v>109317</v>
+        <v>138307</v>
       </c>
       <c r="AS13" s="11">
-        <v>132472</v>
+        <v>135237</v>
       </c>
       <c r="AT13" s="11">
-        <v>138464</v>
+        <v>139306</v>
       </c>
       <c r="AU13" s="11">
-        <v>135237</v>
+        <v>113692</v>
       </c>
       <c r="AV13" s="11">
-        <v>139306</v>
+        <v>145758</v>
       </c>
       <c r="AW13" s="11">
-        <v>113692</v>
+        <v>305266</v>
       </c>
       <c r="AX13" s="11">
-        <v>145758</v>
+        <v>93484</v>
       </c>
       <c r="AY13" s="11">
-        <v>152633</v>
+        <v>155228</v>
       </c>
       <c r="AZ13" s="11">
-        <v>93484</v>
+        <v>151172</v>
       </c>
       <c r="BA13" s="11">
-        <v>155228</v>
+        <v>160378</v>
       </c>
       <c r="BB13" s="11">
-        <v>151172</v>
+        <v>185288</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2026,95 +2026,95 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>187448</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>220934</v>
       </c>
       <c r="AA14" s="13">
-        <v>187448</v>
+        <v>283306</v>
       </c>
       <c r="AB14" s="13">
-        <v>220934</v>
+        <v>313874</v>
       </c>
       <c r="AC14" s="13">
-        <v>283306</v>
+        <v>87984</v>
       </c>
       <c r="AD14" s="13">
-        <v>313874</v>
+        <v>192090</v>
       </c>
       <c r="AE14" s="13">
-        <v>87984</v>
+        <v>208711</v>
       </c>
       <c r="AF14" s="13">
-        <v>192090</v>
+        <v>390611</v>
       </c>
       <c r="AG14" s="13">
-        <v>208711</v>
+        <v>374309</v>
       </c>
       <c r="AH14" s="13">
-        <v>390611</v>
+        <v>434738</v>
       </c>
       <c r="AI14" s="13">
-        <v>374309</v>
+        <v>394978</v>
       </c>
       <c r="AJ14" s="13">
-        <v>434738</v>
+        <v>447635</v>
       </c>
       <c r="AK14" s="13">
-        <v>394978</v>
+        <v>374200</v>
       </c>
       <c r="AL14" s="13">
-        <v>447635</v>
+        <v>397221</v>
       </c>
       <c r="AM14" s="13">
-        <v>374200</v>
+        <v>405954</v>
       </c>
       <c r="AN14" s="13">
-        <v>397221</v>
+        <v>371532</v>
       </c>
       <c r="AO14" s="13">
-        <v>405954</v>
+        <v>181213</v>
       </c>
       <c r="AP14" s="13">
-        <v>371532</v>
+        <v>368615</v>
       </c>
       <c r="AQ14" s="13">
-        <v>181213</v>
+        <v>375276</v>
       </c>
       <c r="AR14" s="13">
-        <v>368615</v>
+        <v>442590</v>
       </c>
       <c r="AS14" s="13">
-        <v>375276</v>
+        <v>374477</v>
       </c>
       <c r="AT14" s="13">
-        <v>407939</v>
+        <v>411592</v>
       </c>
       <c r="AU14" s="13">
-        <v>374477</v>
+        <v>445260</v>
       </c>
       <c r="AV14" s="13">
-        <v>411592</v>
+        <v>401344</v>
       </c>
       <c r="AW14" s="13">
-        <v>445260</v>
+        <v>770222</v>
       </c>
       <c r="AX14" s="13">
-        <v>401344</v>
+        <v>452617</v>
       </c>
       <c r="AY14" s="13">
-        <v>385111</v>
+        <v>362783</v>
       </c>
       <c r="AZ14" s="13">
-        <v>452617</v>
+        <v>406505</v>
       </c>
       <c r="BA14" s="13">
-        <v>362782</v>
+        <v>434259</v>
       </c>
       <c r="BB14" s="13">
-        <v>406505</v>
+        <v>301015</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2185,95 +2185,95 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>55397</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>61205</v>
       </c>
       <c r="AA15" s="11">
-        <v>55397</v>
+        <v>96275</v>
       </c>
       <c r="AB15" s="11">
-        <v>61205</v>
+        <v>66656</v>
       </c>
       <c r="AC15" s="11">
-        <v>96275</v>
+        <v>74343</v>
       </c>
       <c r="AD15" s="11">
-        <v>66656</v>
+        <v>125689</v>
       </c>
       <c r="AE15" s="11">
-        <v>74343</v>
+        <v>94686</v>
       </c>
       <c r="AF15" s="11">
-        <v>125689</v>
+        <v>96237</v>
       </c>
       <c r="AG15" s="11">
-        <v>94686</v>
+        <v>68068</v>
       </c>
       <c r="AH15" s="11">
-        <v>96237</v>
+        <v>58998</v>
       </c>
       <c r="AI15" s="11">
-        <v>68068</v>
+        <v>40394</v>
       </c>
       <c r="AJ15" s="11">
-        <v>58998</v>
+        <v>44075</v>
       </c>
       <c r="AK15" s="11">
-        <v>40394</v>
+        <v>43875</v>
       </c>
       <c r="AL15" s="11">
-        <v>44075</v>
+        <v>57102</v>
       </c>
       <c r="AM15" s="11">
-        <v>43875</v>
+        <v>75403</v>
       </c>
       <c r="AN15" s="11">
-        <v>57102</v>
+        <v>49735</v>
       </c>
       <c r="AO15" s="11">
-        <v>75403</v>
+        <v>671</v>
       </c>
       <c r="AP15" s="11">
-        <v>49735</v>
+        <v>73629</v>
       </c>
       <c r="AQ15" s="11">
-        <v>671</v>
+        <v>57775</v>
       </c>
       <c r="AR15" s="11">
-        <v>73629</v>
+        <v>-63313</v>
       </c>
       <c r="AS15" s="11">
-        <v>57775</v>
+        <v>55395</v>
       </c>
       <c r="AT15" s="11">
-        <v>17445</v>
+        <v>35243</v>
       </c>
       <c r="AU15" s="11">
-        <v>55395</v>
+        <v>50707</v>
       </c>
       <c r="AV15" s="11">
-        <v>35243</v>
+        <v>40537</v>
       </c>
       <c r="AW15" s="11">
-        <v>50707</v>
+        <v>65398</v>
       </c>
       <c r="AX15" s="11">
-        <v>40537</v>
+        <v>56149</v>
       </c>
       <c r="AY15" s="11">
-        <v>32699</v>
+        <v>79297</v>
       </c>
       <c r="AZ15" s="11">
-        <v>56149</v>
+        <v>19858</v>
       </c>
       <c r="BA15" s="11">
-        <v>79297</v>
+        <v>39046</v>
       </c>
       <c r="BB15" s="11">
-        <v>19858</v>
+        <v>79007</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2344,95 +2344,95 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>23635</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>25649</v>
       </c>
       <c r="AA16" s="13">
-        <v>23635</v>
+        <v>29486</v>
       </c>
       <c r="AB16" s="13">
-        <v>25649</v>
+        <v>27412</v>
       </c>
       <c r="AC16" s="13">
-        <v>29486</v>
+        <v>15530</v>
       </c>
       <c r="AD16" s="13">
-        <v>27412</v>
+        <v>21639</v>
       </c>
       <c r="AE16" s="13">
-        <v>15530</v>
+        <v>23288</v>
       </c>
       <c r="AF16" s="13">
-        <v>21639</v>
+        <v>30149</v>
       </c>
       <c r="AG16" s="13">
-        <v>23288</v>
+        <v>28745</v>
       </c>
       <c r="AH16" s="13">
-        <v>30149</v>
+        <v>30065</v>
       </c>
       <c r="AI16" s="13">
-        <v>28745</v>
+        <v>25473</v>
       </c>
       <c r="AJ16" s="13">
-        <v>30065</v>
+        <v>17230</v>
       </c>
       <c r="AK16" s="13">
-        <v>25473</v>
+        <v>24662</v>
       </c>
       <c r="AL16" s="13">
-        <v>17230</v>
+        <v>25208</v>
       </c>
       <c r="AM16" s="13">
-        <v>24662</v>
+        <v>28483</v>
       </c>
       <c r="AN16" s="13">
-        <v>25208</v>
+        <v>27071</v>
       </c>
       <c r="AO16" s="13">
-        <v>28483</v>
+        <v>15526</v>
       </c>
       <c r="AP16" s="13">
-        <v>27071</v>
+        <v>27367</v>
       </c>
       <c r="AQ16" s="13">
-        <v>15526</v>
+        <v>34040</v>
       </c>
       <c r="AR16" s="13">
-        <v>27367</v>
+        <v>37438</v>
       </c>
       <c r="AS16" s="13">
-        <v>34040</v>
+        <v>33573</v>
       </c>
       <c r="AT16" s="13">
-        <v>37404</v>
+        <v>27504</v>
       </c>
       <c r="AU16" s="13">
-        <v>33573</v>
+        <v>28565</v>
       </c>
       <c r="AV16" s="13">
-        <v>27504</v>
+        <v>32074</v>
       </c>
       <c r="AW16" s="13">
-        <v>28565</v>
+        <v>55006</v>
       </c>
       <c r="AX16" s="13">
-        <v>32074</v>
+        <v>30363</v>
       </c>
       <c r="AY16" s="13">
-        <v>27503</v>
+        <v>28719</v>
       </c>
       <c r="AZ16" s="13">
-        <v>30363</v>
+        <v>29157</v>
       </c>
       <c r="BA16" s="13">
-        <v>28719</v>
+        <v>25249</v>
       </c>
       <c r="BB16" s="13">
-        <v>29157</v>
+        <v>30153</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2503,95 +2503,95 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>3671</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>3977</v>
       </c>
       <c r="AA17" s="11">
-        <v>3671</v>
+        <v>4014</v>
       </c>
       <c r="AB17" s="11">
-        <v>3977</v>
+        <v>4560</v>
       </c>
       <c r="AC17" s="11">
-        <v>4014</v>
+        <v>3164</v>
       </c>
       <c r="AD17" s="11">
-        <v>4560</v>
+        <v>3211</v>
       </c>
       <c r="AE17" s="11">
-        <v>3164</v>
+        <v>3218</v>
       </c>
       <c r="AF17" s="11">
-        <v>3211</v>
+        <v>3647</v>
       </c>
       <c r="AG17" s="11">
-        <v>3218</v>
+        <v>2997</v>
       </c>
       <c r="AH17" s="11">
-        <v>3647</v>
+        <v>3636</v>
       </c>
       <c r="AI17" s="11">
-        <v>2997</v>
+        <v>3228</v>
       </c>
       <c r="AJ17" s="11">
-        <v>3636</v>
+        <v>2963</v>
       </c>
       <c r="AK17" s="11">
-        <v>3228</v>
+        <v>3672</v>
       </c>
       <c r="AL17" s="11">
-        <v>2963</v>
+        <v>3515</v>
       </c>
       <c r="AM17" s="11">
-        <v>3672</v>
+        <v>3583</v>
       </c>
       <c r="AN17" s="11">
-        <v>3515</v>
+        <v>3318</v>
       </c>
       <c r="AO17" s="11">
-        <v>3583</v>
+        <v>1941</v>
       </c>
       <c r="AP17" s="11">
-        <v>3318</v>
+        <v>1849</v>
       </c>
       <c r="AQ17" s="11">
-        <v>1941</v>
+        <v>1914</v>
       </c>
       <c r="AR17" s="11">
         <v>1849</v>
       </c>
       <c r="AS17" s="11">
-        <v>1914</v>
+        <v>2644</v>
       </c>
       <c r="AT17" s="11">
-        <v>1849</v>
+        <v>3428</v>
       </c>
       <c r="AU17" s="11">
-        <v>2644</v>
+        <v>3699</v>
       </c>
       <c r="AV17" s="11">
-        <v>3428</v>
+        <v>3149</v>
       </c>
       <c r="AW17" s="11">
-        <v>3699</v>
+        <v>7034</v>
       </c>
       <c r="AX17" s="11">
-        <v>3149</v>
+        <v>3446</v>
       </c>
       <c r="AY17" s="11">
-        <v>3517</v>
+        <v>3773</v>
       </c>
       <c r="AZ17" s="11">
-        <v>3446</v>
+        <v>2383</v>
       </c>
       <c r="BA17" s="11">
-        <v>3773</v>
+        <v>1831</v>
       </c>
       <c r="BB17" s="11">
-        <v>2383</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2662,95 +2662,95 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>280276</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>241756</v>
       </c>
       <c r="AA18" s="13">
-        <v>280276</v>
+        <v>201236</v>
       </c>
       <c r="AB18" s="13">
-        <v>241756</v>
+        <v>301014</v>
       </c>
       <c r="AC18" s="13">
-        <v>201236</v>
+        <v>417865</v>
       </c>
       <c r="AD18" s="13">
-        <v>301014</v>
+        <v>48739</v>
       </c>
       <c r="AE18" s="13">
-        <v>417865</v>
+        <v>61950</v>
       </c>
       <c r="AF18" s="13">
-        <v>48739</v>
+        <v>154898</v>
       </c>
       <c r="AG18" s="13">
-        <v>61950</v>
+        <v>19288</v>
       </c>
       <c r="AH18" s="13">
-        <v>154898</v>
+        <v>104059</v>
       </c>
       <c r="AI18" s="13">
-        <v>19288</v>
+        <v>142083</v>
       </c>
       <c r="AJ18" s="13">
-        <v>104059</v>
+        <v>127789</v>
       </c>
       <c r="AK18" s="13">
-        <v>142083</v>
+        <v>231522</v>
       </c>
       <c r="AL18" s="13">
-        <v>127789</v>
+        <v>218587</v>
       </c>
       <c r="AM18" s="13">
-        <v>231522</v>
+        <v>196138</v>
       </c>
       <c r="AN18" s="13">
-        <v>218587</v>
+        <v>165617</v>
       </c>
       <c r="AO18" s="13">
-        <v>196138</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="13">
-        <v>165617</v>
+        <v>117546</v>
       </c>
       <c r="AQ18" s="13">
-        <v>0</v>
+        <v>138254</v>
       </c>
       <c r="AR18" s="13">
-        <v>117546</v>
+        <v>4089161</v>
       </c>
       <c r="AS18" s="13">
-        <v>138254</v>
+        <v>540037</v>
       </c>
       <c r="AT18" s="13">
-        <v>497374</v>
+        <v>581539</v>
       </c>
       <c r="AU18" s="13">
-        <v>540037</v>
+        <v>567808</v>
       </c>
       <c r="AV18" s="13">
-        <v>227256</v>
+        <v>594139</v>
       </c>
       <c r="AW18" s="13">
-        <v>567808</v>
+        <v>1218402</v>
       </c>
       <c r="AX18" s="13">
-        <v>594139</v>
+        <v>570172</v>
       </c>
       <c r="AY18" s="13">
-        <v>609201</v>
+        <v>588302</v>
       </c>
       <c r="AZ18" s="13">
-        <v>570172</v>
+        <v>554461</v>
       </c>
       <c r="BA18" s="13">
-        <v>588302</v>
+        <v>515269</v>
       </c>
       <c r="BB18" s="13">
-        <v>554461</v>
+        <v>547121</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2821,95 +2821,95 @@
       <c r="X19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>58</v>
+      <c r="Y19" s="11">
+        <v>4698</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>1926</v>
       </c>
       <c r="AA19" s="11">
-        <v>4698</v>
+        <v>1547</v>
       </c>
       <c r="AB19" s="11">
-        <v>1926</v>
+        <v>3341</v>
       </c>
       <c r="AC19" s="11">
-        <v>1547</v>
+        <v>2828</v>
       </c>
       <c r="AD19" s="11">
-        <v>3341</v>
+        <v>5781</v>
       </c>
       <c r="AE19" s="11">
-        <v>2828</v>
+        <v>3670</v>
       </c>
       <c r="AF19" s="11">
-        <v>5781</v>
+        <v>3681</v>
       </c>
       <c r="AG19" s="11">
-        <v>3670</v>
+        <v>6589</v>
       </c>
       <c r="AH19" s="11">
-        <v>3681</v>
+        <v>1901</v>
       </c>
       <c r="AI19" s="11">
-        <v>6589</v>
+        <v>3336</v>
       </c>
       <c r="AJ19" s="11">
-        <v>1901</v>
+        <v>3869</v>
       </c>
       <c r="AK19" s="11">
-        <v>3336</v>
+        <v>2837</v>
       </c>
       <c r="AL19" s="11">
-        <v>3869</v>
+        <v>3091</v>
       </c>
       <c r="AM19" s="11">
-        <v>2837</v>
+        <v>5018</v>
       </c>
       <c r="AN19" s="11">
-        <v>3091</v>
+        <v>4662</v>
       </c>
       <c r="AO19" s="11">
-        <v>5018</v>
+        <v>3694</v>
       </c>
       <c r="AP19" s="11">
-        <v>4662</v>
+        <v>4838</v>
       </c>
       <c r="AQ19" s="11">
-        <v>3694</v>
+        <v>3508</v>
       </c>
       <c r="AR19" s="11">
-        <v>4838</v>
+        <v>3886</v>
       </c>
       <c r="AS19" s="11">
-        <v>3508</v>
+        <v>3390</v>
       </c>
       <c r="AT19" s="11">
-        <v>3886</v>
+        <v>2801</v>
       </c>
       <c r="AU19" s="11">
-        <v>3390</v>
+        <v>1092</v>
       </c>
       <c r="AV19" s="11">
-        <v>2801</v>
+        <v>4030</v>
       </c>
       <c r="AW19" s="11">
-        <v>1092</v>
+        <v>7224</v>
       </c>
       <c r="AX19" s="11">
-        <v>4030</v>
+        <v>3556</v>
       </c>
       <c r="AY19" s="11">
-        <v>3612</v>
+        <v>3389</v>
       </c>
       <c r="AZ19" s="11">
-        <v>3556</v>
+        <v>1610</v>
       </c>
       <c r="BA19" s="11">
-        <v>3389</v>
+        <v>238</v>
       </c>
       <c r="BB19" s="11">
-        <v>1610</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -3037,38 +3037,38 @@
       <c r="AQ20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT20" s="13" t="s">
-        <v>58</v>
+      <c r="AR20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="13">
+        <v>41796</v>
       </c>
       <c r="AU20" s="13">
-        <v>0</v>
+        <v>12324</v>
       </c>
       <c r="AV20" s="13">
-        <v>17687</v>
+        <v>14803</v>
       </c>
       <c r="AW20" s="13">
-        <v>12324</v>
+        <v>20758</v>
       </c>
       <c r="AX20" s="13">
-        <v>14803</v>
+        <v>20728</v>
       </c>
       <c r="AY20" s="13">
-        <v>10379</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="13">
-        <v>20728</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="13">
-        <v>0</v>
+        <v>4102</v>
       </c>
       <c r="BB20" s="13">
-        <v>0</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3139,95 +3139,95 @@
       <c r="X21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z21" s="11" t="s">
-        <v>58</v>
+      <c r="Y21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>29</v>
       </c>
       <c r="AA21" s="11">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB21" s="11">
+        <v>31</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>33</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>31</v>
+      </c>
+      <c r="AH21" s="11">
         <v>29</v>
       </c>
-      <c r="AC21" s="11">
+      <c r="AI21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="11">
+        <v>31</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="11">
+        <v>29</v>
+      </c>
+      <c r="AM21" s="11">
+        <v>26</v>
+      </c>
+      <c r="AN21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="11">
+        <v>24</v>
+      </c>
+      <c r="AP21" s="11">
+        <v>30</v>
+      </c>
+      <c r="AQ21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="11">
+        <v>50</v>
+      </c>
+      <c r="AT21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="11">
+        <v>3</v>
+      </c>
+      <c r="AV21" s="11">
+        <v>46</v>
+      </c>
+      <c r="AW21" s="11">
+        <v>56</v>
+      </c>
+      <c r="AX21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="11">
         <v>27</v>
       </c>
-      <c r="AD21" s="11">
-        <v>31</v>
-      </c>
-      <c r="AE21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>33</v>
-      </c>
-      <c r="AG21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="11">
-        <v>31</v>
-      </c>
-      <c r="AJ21" s="11">
-        <v>29</v>
-      </c>
-      <c r="AK21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="11">
-        <v>31</v>
-      </c>
-      <c r="AM21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="11">
-        <v>29</v>
-      </c>
-      <c r="AO21" s="11">
-        <v>26</v>
-      </c>
-      <c r="AP21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="11">
-        <v>24</v>
-      </c>
-      <c r="AR21" s="11">
+      <c r="AZ21" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="11">
+        <v>25</v>
+      </c>
+      <c r="BB21" s="11">
         <v>30</v>
-      </c>
-      <c r="AS21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="11">
-        <v>50</v>
-      </c>
-      <c r="AV21" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="11">
-        <v>3</v>
-      </c>
-      <c r="AX21" s="11">
-        <v>46</v>
-      </c>
-      <c r="AY21" s="11">
-        <v>28</v>
-      </c>
-      <c r="AZ21" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA21" s="11">
-        <v>27</v>
-      </c>
-      <c r="BB21" s="11">
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3319,20 +3319,20 @@
       <c r="AE22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG22" s="13" t="s">
-        <v>58</v>
+      <c r="AF22" s="13">
+        <v>36</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>0</v>
       </c>
       <c r="AH22" s="13">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="13">
         <v>0</v>
       </c>
-      <c r="AJ22" s="13">
-        <v>0</v>
+      <c r="AJ22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK22" s="13">
         <v>0</v>
@@ -3343,8 +3343,8 @@
       <c r="AM22" s="13">
         <v>0</v>
       </c>
-      <c r="AN22" s="13" t="s">
-        <v>58</v>
+      <c r="AN22" s="13">
+        <v>0</v>
       </c>
       <c r="AO22" s="13">
         <v>0</v>
@@ -3361,11 +3361,11 @@
       <c r="AS22" s="13">
         <v>0</v>
       </c>
-      <c r="AT22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU22" s="13">
-        <v>0</v>
+      <c r="AT22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV22" s="13" t="s">
         <v>58</v>
@@ -3505,26 +3505,26 @@
       <c r="AN23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP23" s="11" t="s">
-        <v>58</v>
+      <c r="AO23" s="11">
+        <v>37237</v>
+      </c>
+      <c r="AP23" s="11">
+        <v>15651</v>
       </c>
       <c r="AQ23" s="11">
-        <v>37237</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="11">
-        <v>15651</v>
+        <v>-52888</v>
       </c>
       <c r="AS23" s="11">
         <v>0</v>
       </c>
-      <c r="AT23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="11">
-        <v>0</v>
+      <c r="AT23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV23" s="11" t="s">
         <v>58</v>
@@ -3616,89 +3616,89 @@
       <c r="X24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z24" s="13" t="s">
-        <v>58</v>
+      <c r="Y24" s="13">
+        <v>6646</v>
+      </c>
+      <c r="Z24" s="13">
+        <v>14362</v>
       </c>
       <c r="AA24" s="13">
-        <v>6646</v>
+        <v>14757</v>
       </c>
       <c r="AB24" s="13">
-        <v>14362</v>
+        <v>12678</v>
       </c>
       <c r="AC24" s="13">
-        <v>14757</v>
+        <v>11137</v>
       </c>
       <c r="AD24" s="13">
-        <v>12678</v>
+        <v>12571</v>
       </c>
       <c r="AE24" s="13">
-        <v>11137</v>
+        <v>2933</v>
       </c>
       <c r="AF24" s="13">
-        <v>12571</v>
+        <v>2628</v>
       </c>
       <c r="AG24" s="13">
-        <v>2933</v>
+        <v>11680</v>
       </c>
       <c r="AH24" s="13">
-        <v>2628</v>
+        <v>1211</v>
       </c>
       <c r="AI24" s="13">
-        <v>11680</v>
+        <v>5917</v>
       </c>
       <c r="AJ24" s="13">
-        <v>1211</v>
+        <v>211</v>
       </c>
       <c r="AK24" s="13">
-        <v>5917</v>
+        <v>3193</v>
       </c>
       <c r="AL24" s="13">
-        <v>211</v>
+        <v>4061</v>
       </c>
       <c r="AM24" s="13">
-        <v>3193</v>
+        <v>9694</v>
       </c>
       <c r="AN24" s="13">
-        <v>4061</v>
+        <v>9130</v>
       </c>
       <c r="AO24" s="13">
-        <v>9694</v>
+        <v>1439</v>
       </c>
       <c r="AP24" s="13">
-        <v>9130</v>
+        <v>7021</v>
       </c>
       <c r="AQ24" s="13">
-        <v>1439</v>
+        <v>4238</v>
       </c>
       <c r="AR24" s="13">
-        <v>7021</v>
+        <v>642</v>
       </c>
       <c r="AS24" s="13">
-        <v>4238</v>
+        <v>1678</v>
       </c>
       <c r="AT24" s="13">
-        <v>642</v>
+        <v>2908</v>
       </c>
       <c r="AU24" s="13">
-        <v>1678</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="13">
-        <v>2908</v>
+        <v>75</v>
       </c>
       <c r="AW24" s="13">
-        <v>0</v>
+        <v>1820</v>
       </c>
       <c r="AX24" s="13">
-        <v>75</v>
+        <v>1940</v>
       </c>
       <c r="AY24" s="13">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="13">
-        <v>1940</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="13">
         <v>0</v>
@@ -3775,95 +3775,95 @@
       <c r="X25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z25" s="11" t="s">
-        <v>58</v>
+      <c r="Y25" s="11">
+        <v>1204</v>
+      </c>
+      <c r="Z25" s="11">
+        <v>4986</v>
       </c>
       <c r="AA25" s="11">
-        <v>1204</v>
+        <v>1936</v>
       </c>
       <c r="AB25" s="11">
-        <v>4986</v>
+        <v>3519</v>
       </c>
       <c r="AC25" s="11">
-        <v>1936</v>
+        <v>2253</v>
       </c>
       <c r="AD25" s="11">
-        <v>3519</v>
+        <v>5307</v>
       </c>
       <c r="AE25" s="11">
-        <v>2253</v>
+        <v>1888</v>
       </c>
       <c r="AF25" s="11">
-        <v>5307</v>
+        <v>795</v>
       </c>
       <c r="AG25" s="11">
-        <v>1888</v>
+        <v>539</v>
       </c>
       <c r="AH25" s="11">
-        <v>795</v>
+        <v>2099</v>
       </c>
       <c r="AI25" s="11">
-        <v>539</v>
+        <v>3139</v>
       </c>
       <c r="AJ25" s="11">
-        <v>2099</v>
+        <v>306</v>
       </c>
       <c r="AK25" s="11">
-        <v>3139</v>
+        <v>602</v>
       </c>
       <c r="AL25" s="11">
-        <v>306</v>
+        <v>2062</v>
       </c>
       <c r="AM25" s="11">
-        <v>602</v>
+        <v>1349</v>
       </c>
       <c r="AN25" s="11">
-        <v>2062</v>
+        <v>5684</v>
       </c>
       <c r="AO25" s="11">
-        <v>1349</v>
+        <v>2277</v>
       </c>
       <c r="AP25" s="11">
-        <v>5684</v>
+        <v>2744</v>
       </c>
       <c r="AQ25" s="11">
-        <v>2277</v>
+        <v>1346</v>
       </c>
       <c r="AR25" s="11">
-        <v>2744</v>
+        <v>757</v>
       </c>
       <c r="AS25" s="11">
-        <v>1346</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="11">
-        <v>757</v>
+        <v>1133</v>
       </c>
       <c r="AU25" s="11">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="AV25" s="11">
-        <v>1133</v>
+        <v>805</v>
       </c>
       <c r="AW25" s="11">
-        <v>348</v>
+        <v>2102</v>
       </c>
       <c r="AX25" s="11">
-        <v>805</v>
+        <v>2097</v>
       </c>
       <c r="AY25" s="11">
-        <v>1051</v>
+        <v>304</v>
       </c>
       <c r="AZ25" s="11">
-        <v>2097</v>
+        <v>1822</v>
       </c>
       <c r="BA25" s="11">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="BB25" s="11">
-        <v>1822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -3934,26 +3934,26 @@
       <c r="X26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z26" s="13" t="s">
-        <v>58</v>
+      <c r="Y26" s="13">
+        <v>24661</v>
+      </c>
+      <c r="Z26" s="13">
+        <v>13066</v>
       </c>
       <c r="AA26" s="13">
-        <v>24661</v>
+        <v>14982</v>
       </c>
       <c r="AB26" s="13">
-        <v>13066</v>
+        <v>6037</v>
       </c>
       <c r="AC26" s="13">
-        <v>14982</v>
+        <v>31</v>
       </c>
       <c r="AD26" s="13">
-        <v>6037</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="13">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="13">
         <v>0</v>
@@ -3992,28 +3992,28 @@
         <v>0</v>
       </c>
       <c r="AR26" s="13">
-        <v>0</v>
+        <v>60178</v>
       </c>
       <c r="AS26" s="13">
-        <v>0</v>
+        <v>10504</v>
       </c>
       <c r="AT26" s="13">
         <v>0</v>
       </c>
       <c r="AU26" s="13">
-        <v>10504</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="13">
-        <v>20674</v>
+        <v>0</v>
       </c>
       <c r="AW26" s="13">
         <v>0</v>
       </c>
-      <c r="AX26" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="13">
-        <v>0</v>
+      <c r="AX26" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY26" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ26" s="13" t="s">
         <v>58</v>
@@ -4093,95 +4093,95 @@
       <c r="X27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z27" s="11" t="s">
-        <v>58</v>
+      <c r="Y27" s="11">
+        <v>28327</v>
+      </c>
+      <c r="Z27" s="11">
+        <v>25618</v>
       </c>
       <c r="AA27" s="11">
-        <v>28327</v>
+        <v>29225</v>
       </c>
       <c r="AB27" s="11">
-        <v>25618</v>
+        <v>32850</v>
       </c>
       <c r="AC27" s="11">
-        <v>29225</v>
+        <v>15761</v>
       </c>
       <c r="AD27" s="11">
-        <v>32850</v>
+        <v>12529</v>
       </c>
       <c r="AE27" s="11">
-        <v>15761</v>
+        <v>17222</v>
       </c>
       <c r="AF27" s="11">
-        <v>12529</v>
+        <v>22354</v>
       </c>
       <c r="AG27" s="11">
-        <v>17222</v>
+        <v>29666</v>
       </c>
       <c r="AH27" s="11">
-        <v>22354</v>
+        <v>25013</v>
       </c>
       <c r="AI27" s="11">
-        <v>29666</v>
+        <v>46064</v>
       </c>
       <c r="AJ27" s="11">
-        <v>25013</v>
+        <v>44942</v>
       </c>
       <c r="AK27" s="11">
-        <v>46064</v>
+        <v>41416</v>
       </c>
       <c r="AL27" s="11">
-        <v>44942</v>
+        <v>39214</v>
       </c>
       <c r="AM27" s="11">
-        <v>41416</v>
+        <v>53817</v>
       </c>
       <c r="AN27" s="11">
-        <v>39214</v>
+        <v>53664</v>
       </c>
       <c r="AO27" s="11">
-        <v>53817</v>
+        <v>30730</v>
       </c>
       <c r="AP27" s="11">
-        <v>53664</v>
+        <v>38294</v>
       </c>
       <c r="AQ27" s="11">
-        <v>30730</v>
+        <v>40167</v>
       </c>
       <c r="AR27" s="11">
-        <v>38294</v>
+        <v>33958</v>
       </c>
       <c r="AS27" s="11">
-        <v>40167</v>
+        <v>33457</v>
       </c>
       <c r="AT27" s="11">
-        <v>33958</v>
+        <v>46624</v>
       </c>
       <c r="AU27" s="11">
-        <v>33457</v>
+        <v>34840</v>
       </c>
       <c r="AV27" s="11">
-        <v>46624</v>
+        <v>51536</v>
       </c>
       <c r="AW27" s="11">
-        <v>34840</v>
+        <v>97802</v>
       </c>
       <c r="AX27" s="11">
-        <v>51536</v>
+        <v>58168</v>
       </c>
       <c r="AY27" s="11">
-        <v>48901</v>
+        <v>25685</v>
       </c>
       <c r="AZ27" s="11">
-        <v>58168</v>
+        <v>27418</v>
       </c>
       <c r="BA27" s="11">
-        <v>25685</v>
+        <v>48482</v>
       </c>
       <c r="BB27" s="11">
-        <v>27418</v>
+        <v>24606</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -4252,86 +4252,86 @@
       <c r="X28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z28" s="13" t="s">
-        <v>58</v>
+      <c r="Y28" s="13">
+        <v>246700</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>262938</v>
       </c>
       <c r="AA28" s="13">
-        <v>246700</v>
+        <v>259826</v>
       </c>
       <c r="AB28" s="13">
-        <v>262938</v>
+        <v>221408</v>
       </c>
       <c r="AC28" s="13">
-        <v>259826</v>
+        <v>10810</v>
       </c>
       <c r="AD28" s="13">
-        <v>221408</v>
+        <v>302400</v>
       </c>
       <c r="AE28" s="13">
-        <v>10810</v>
+        <v>344554</v>
       </c>
       <c r="AF28" s="13">
-        <v>302400</v>
+        <v>335664</v>
       </c>
       <c r="AG28" s="13">
-        <v>344554</v>
+        <v>369027</v>
       </c>
       <c r="AH28" s="13">
-        <v>335664</v>
+        <v>443169</v>
       </c>
       <c r="AI28" s="13">
-        <v>369027</v>
+        <v>407635</v>
       </c>
       <c r="AJ28" s="13">
-        <v>443169</v>
+        <v>410416</v>
       </c>
       <c r="AK28" s="13">
-        <v>407635</v>
+        <v>346181</v>
       </c>
       <c r="AL28" s="13">
-        <v>410416</v>
+        <v>339110</v>
       </c>
       <c r="AM28" s="13">
-        <v>346181</v>
+        <v>355651</v>
       </c>
       <c r="AN28" s="13">
-        <v>339110</v>
+        <v>339641</v>
       </c>
       <c r="AO28" s="13">
-        <v>355651</v>
+        <v>338772</v>
       </c>
       <c r="AP28" s="13">
-        <v>339641</v>
+        <v>338474</v>
       </c>
       <c r="AQ28" s="13">
-        <v>338772</v>
+        <v>393436</v>
       </c>
       <c r="AR28" s="13">
-        <v>338474</v>
+        <v>-3510367</v>
       </c>
       <c r="AS28" s="13">
-        <v>393436</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="13">
-        <v>81420</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="13">
         <v>0</v>
       </c>
       <c r="AV28" s="13">
-        <v>354283</v>
-      </c>
-      <c r="AW28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AW28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ28" s="13" t="s">
         <v>58</v>
@@ -4411,68 +4411,68 @@
       <c r="X29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z29" s="11" t="s">
-        <v>58</v>
+      <c r="Y29" s="11">
+        <v>15999</v>
+      </c>
+      <c r="Z29" s="11">
+        <v>15623</v>
       </c>
       <c r="AA29" s="11">
-        <v>15999</v>
+        <v>17595</v>
       </c>
       <c r="AB29" s="11">
-        <v>15623</v>
+        <v>14494</v>
       </c>
       <c r="AC29" s="11">
-        <v>17595</v>
+        <v>4063</v>
       </c>
       <c r="AD29" s="11">
-        <v>14494</v>
+        <v>2146</v>
       </c>
       <c r="AE29" s="11">
-        <v>4063</v>
+        <v>244</v>
       </c>
       <c r="AF29" s="11">
-        <v>2146</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="11">
-        <v>244</v>
+        <v>3841</v>
       </c>
       <c r="AH29" s="11">
         <v>0</v>
       </c>
       <c r="AI29" s="11">
-        <v>3841</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="11">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="AK29" s="11">
-        <v>0</v>
+        <v>11458</v>
       </c>
       <c r="AL29" s="11">
-        <v>308</v>
+        <v>5203</v>
       </c>
       <c r="AM29" s="11">
-        <v>11458</v>
+        <v>10659</v>
       </c>
       <c r="AN29" s="11">
-        <v>5203</v>
+        <v>21009</v>
       </c>
       <c r="AO29" s="11">
-        <v>10659</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="11">
-        <v>21009</v>
+        <v>4421</v>
       </c>
       <c r="AQ29" s="11">
-        <v>0</v>
+        <v>4411</v>
       </c>
       <c r="AR29" s="11">
-        <v>4421</v>
+        <v>-60178</v>
       </c>
       <c r="AS29" s="11">
-        <v>4411</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="11">
         <v>0</v>
@@ -4481,16 +4481,16 @@
         <v>0</v>
       </c>
       <c r="AV29" s="11">
-        <v>3435</v>
-      </c>
-      <c r="AW29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX29" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY29" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AW29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ29" s="11" t="s">
         <v>58</v>
@@ -4570,86 +4570,86 @@
       <c r="X30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z30" s="13" t="s">
-        <v>58</v>
+      <c r="Y30" s="13">
+        <v>114825</v>
+      </c>
+      <c r="Z30" s="13">
+        <v>112617</v>
       </c>
       <c r="AA30" s="13">
-        <v>114825</v>
+        <v>164146</v>
       </c>
       <c r="AB30" s="13">
-        <v>112617</v>
+        <v>143234</v>
       </c>
       <c r="AC30" s="13">
-        <v>164146</v>
+        <v>105468</v>
       </c>
       <c r="AD30" s="13">
-        <v>143234</v>
+        <v>118601</v>
       </c>
       <c r="AE30" s="13">
-        <v>105468</v>
+        <v>113723</v>
       </c>
       <c r="AF30" s="13">
-        <v>118601</v>
+        <v>135289</v>
       </c>
       <c r="AG30" s="13">
-        <v>113723</v>
+        <v>150714</v>
       </c>
       <c r="AH30" s="13">
-        <v>135289</v>
+        <v>109960</v>
       </c>
       <c r="AI30" s="13">
-        <v>150714</v>
+        <v>151784</v>
       </c>
       <c r="AJ30" s="13">
-        <v>109960</v>
+        <v>149251</v>
       </c>
       <c r="AK30" s="13">
-        <v>151784</v>
+        <v>147817</v>
       </c>
       <c r="AL30" s="13">
-        <v>149251</v>
+        <v>160835</v>
       </c>
       <c r="AM30" s="13">
-        <v>147817</v>
+        <v>153560</v>
       </c>
       <c r="AN30" s="13">
-        <v>160835</v>
+        <v>130555</v>
       </c>
       <c r="AO30" s="13">
-        <v>153560</v>
+        <v>99947</v>
       </c>
       <c r="AP30" s="13">
-        <v>130555</v>
+        <v>66122</v>
       </c>
       <c r="AQ30" s="13">
-        <v>99947</v>
+        <v>125236</v>
       </c>
       <c r="AR30" s="13">
-        <v>66122</v>
+        <v>-1295067</v>
       </c>
       <c r="AS30" s="13">
-        <v>125236</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="13">
-        <v>35981</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="13">
         <v>0</v>
       </c>
       <c r="AV30" s="13">
-        <v>35621</v>
-      </c>
-      <c r="AW30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY30" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AW30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ30" s="13" t="s">
         <v>58</v>
@@ -4728,94 +4728,94 @@
         <v>0</v>
       </c>
       <c r="Y31" s="15">
-        <v>0</v>
+        <v>1446780</v>
       </c>
       <c r="Z31" s="15">
-        <v>0</v>
+        <v>1447862</v>
       </c>
       <c r="AA31" s="15">
-        <v>1446780</v>
+        <v>1483077</v>
       </c>
       <c r="AB31" s="15">
-        <v>1447862</v>
+        <v>1518975</v>
       </c>
       <c r="AC31" s="15">
-        <v>1483077</v>
+        <v>1078401</v>
       </c>
       <c r="AD31" s="15">
-        <v>1518975</v>
+        <v>1225300</v>
       </c>
       <c r="AE31" s="15">
-        <v>1078401</v>
+        <v>1269815</v>
       </c>
       <c r="AF31" s="15">
-        <v>1225300</v>
+        <v>1556055</v>
       </c>
       <c r="AG31" s="15">
-        <v>1269815</v>
+        <v>1457424</v>
       </c>
       <c r="AH31" s="15">
-        <v>1556055</v>
+        <v>1634861</v>
       </c>
       <c r="AI31" s="15">
-        <v>1457424</v>
+        <v>1648516</v>
       </c>
       <c r="AJ31" s="15">
-        <v>1634861</v>
+        <v>1602009</v>
       </c>
       <c r="AK31" s="15">
-        <v>1648516</v>
+        <v>1661632</v>
       </c>
       <c r="AL31" s="15">
-        <v>1602009</v>
+        <v>1612399</v>
       </c>
       <c r="AM31" s="15">
-        <v>1661632</v>
+        <v>1688226</v>
       </c>
       <c r="AN31" s="15">
-        <v>1612399</v>
+        <v>1583531</v>
       </c>
       <c r="AO31" s="15">
-        <v>1688226</v>
+        <v>968558</v>
       </c>
       <c r="AP31" s="15">
-        <v>1583531</v>
+        <v>1449560</v>
       </c>
       <c r="AQ31" s="15">
-        <v>968558</v>
+        <v>1589021</v>
       </c>
       <c r="AR31" s="15">
-        <v>1449560</v>
+        <v>1556894</v>
       </c>
       <c r="AS31" s="15">
-        <v>1589021</v>
+        <v>1588661</v>
       </c>
       <c r="AT31" s="15">
-        <v>1518591</v>
+        <v>1669435</v>
       </c>
       <c r="AU31" s="15">
-        <v>1588661</v>
+        <v>1638784</v>
       </c>
       <c r="AV31" s="15">
-        <v>1669435</v>
+        <v>1661320</v>
       </c>
       <c r="AW31" s="15">
-        <v>1638784</v>
+        <v>3397446</v>
       </c>
       <c r="AX31" s="15">
-        <v>1661320</v>
+        <v>1723385</v>
       </c>
       <c r="AY31" s="15">
-        <v>1698723</v>
+        <v>1679558</v>
       </c>
       <c r="AZ31" s="15">
-        <v>1723385</v>
+        <v>1598247</v>
       </c>
       <c r="BA31" s="15">
-        <v>1679557</v>
+        <v>1624015</v>
       </c>
       <c r="BB31" s="15">
-        <v>1598247</v>
+        <v>1556860</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4943,11 +4943,11 @@
       <c r="X33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z33" s="11" t="s">
-        <v>58</v>
+      <c r="Y33" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>0</v>
       </c>
       <c r="AA33" s="11">
         <v>0</v>
@@ -4973,11 +4973,11 @@
       <c r="AH33" s="11">
         <v>0</v>
       </c>
-      <c r="AI33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="11">
-        <v>0</v>
+      <c r="AI33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK33" s="11" t="s">
         <v>58</v>
@@ -5000,17 +5000,17 @@
       <c r="AQ33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS33" s="11" t="s">
-        <v>58</v>
+      <c r="AR33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="11">
+        <v>0</v>
       </c>
       <c r="AT33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU33" s="11">
-        <v>0</v>
+      <c r="AU33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV33" s="11" t="s">
         <v>58</v>
@@ -5018,11 +5018,11 @@
       <c r="AW33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY33" s="11" t="s">
-        <v>58</v>
+      <c r="AX33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="11">
+        <v>0</v>
       </c>
       <c r="AZ33" s="11">
         <v>0</v>
@@ -5102,11 +5102,11 @@
       <c r="X34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z34" s="13" t="s">
-        <v>58</v>
+      <c r="Y34" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="13">
+        <v>0</v>
       </c>
       <c r="AA34" s="13">
         <v>0</v>
@@ -5132,11 +5132,11 @@
       <c r="AH34" s="13">
         <v>0</v>
       </c>
-      <c r="AI34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="13">
-        <v>0</v>
+      <c r="AI34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK34" s="13" t="s">
         <v>58</v>
@@ -5159,17 +5159,17 @@
       <c r="AQ34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS34" s="13" t="s">
-        <v>58</v>
+      <c r="AR34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>0</v>
       </c>
       <c r="AT34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU34" s="13">
-        <v>0</v>
+      <c r="AU34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV34" s="13" t="s">
         <v>58</v>
@@ -5177,11 +5177,11 @@
       <c r="AW34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY34" s="13" t="s">
-        <v>58</v>
+      <c r="AX34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="13">
+        <v>0</v>
       </c>
       <c r="AZ34" s="13">
         <v>0</v>
@@ -5336,11 +5336,11 @@
       <c r="AW35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY35" s="11" t="s">
-        <v>58</v>
+      <c r="AX35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="11">
+        <v>0</v>
       </c>
       <c r="AZ35" s="11">
         <v>0</v>
@@ -5447,14 +5447,14 @@
       <c r="AG36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH36" s="13" t="s">
-        <v>58</v>
+      <c r="AH36" s="13">
+        <v>0</v>
       </c>
       <c r="AI36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ36" s="13">
-        <v>0</v>
+      <c r="AJ36" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK36" s="13" t="s">
         <v>58</v>
@@ -5477,17 +5477,17 @@
       <c r="AQ36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS36" s="13" t="s">
-        <v>58</v>
+      <c r="AR36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="13">
+        <v>0</v>
       </c>
       <c r="AT36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU36" s="13">
-        <v>0</v>
+      <c r="AU36" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV36" s="13" t="s">
         <v>58</v>
@@ -5579,11 +5579,11 @@
       <c r="X37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z37" s="11" t="s">
-        <v>58</v>
+      <c r="Y37" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>0</v>
       </c>
       <c r="AA37" s="11">
         <v>0</v>
@@ -5609,11 +5609,11 @@
       <c r="AH37" s="11">
         <v>0</v>
       </c>
-      <c r="AI37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="11">
-        <v>0</v>
+      <c r="AI37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK37" s="11" t="s">
         <v>58</v>
@@ -5636,17 +5636,17 @@
       <c r="AQ37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS37" s="11" t="s">
-        <v>58</v>
+      <c r="AR37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="11">
+        <v>0</v>
       </c>
       <c r="AT37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU37" s="11">
-        <v>0</v>
+      <c r="AU37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV37" s="11" t="s">
         <v>58</v>
@@ -5654,11 +5654,11 @@
       <c r="AW37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY37" s="11" t="s">
-        <v>58</v>
+      <c r="AX37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="11">
+        <v>0</v>
       </c>
       <c r="AZ37" s="11">
         <v>0</v>
@@ -5765,14 +5765,14 @@
       <c r="AG38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH38" s="13" t="s">
-        <v>58</v>
+      <c r="AH38" s="13">
+        <v>0</v>
       </c>
       <c r="AI38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ38" s="13">
-        <v>0</v>
+      <c r="AJ38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK38" s="13" t="s">
         <v>58</v>
@@ -5924,14 +5924,14 @@
       <c r="AG39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH39" s="11" t="s">
-        <v>58</v>
+      <c r="AH39" s="11">
+        <v>0</v>
       </c>
       <c r="AI39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ39" s="11">
-        <v>0</v>
+      <c r="AJ39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK39" s="11" t="s">
         <v>58</v>
@@ -6056,11 +6056,11 @@
       <c r="X40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z40" s="13" t="s">
-        <v>58</v>
+      <c r="Y40" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="13">
+        <v>0</v>
       </c>
       <c r="AA40" s="13">
         <v>0</v>
@@ -6086,11 +6086,11 @@
       <c r="AH40" s="13">
         <v>0</v>
       </c>
-      <c r="AI40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>0</v>
+      <c r="AI40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK40" s="13" t="s">
         <v>58</v>
@@ -6113,17 +6113,17 @@
       <c r="AQ40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS40" s="13" t="s">
-        <v>58</v>
+      <c r="AR40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>0</v>
       </c>
       <c r="AT40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU40" s="13">
-        <v>0</v>
+      <c r="AU40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV40" s="13" t="s">
         <v>58</v>
@@ -6427,11 +6427,11 @@
       <c r="X43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z43" s="15" t="s">
-        <v>58</v>
+      <c r="Y43" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="15">
+        <v>0</v>
       </c>
       <c r="AA43" s="15">
         <v>0</v>
@@ -6585,94 +6585,94 @@
         <v>0</v>
       </c>
       <c r="Y44" s="19">
-        <v>0</v>
+        <v>1446780</v>
       </c>
       <c r="Z44" s="19">
-        <v>0</v>
+        <v>1447862</v>
       </c>
       <c r="AA44" s="19">
-        <v>1446780</v>
+        <v>1483077</v>
       </c>
       <c r="AB44" s="19">
-        <v>1447862</v>
+        <v>1518975</v>
       </c>
       <c r="AC44" s="19">
-        <v>1483077</v>
+        <v>1078401</v>
       </c>
       <c r="AD44" s="19">
-        <v>1518975</v>
+        <v>1225300</v>
       </c>
       <c r="AE44" s="19">
-        <v>1078401</v>
+        <v>1269815</v>
       </c>
       <c r="AF44" s="19">
-        <v>1225300</v>
+        <v>1556055</v>
       </c>
       <c r="AG44" s="19">
-        <v>1269815</v>
+        <v>1457424</v>
       </c>
       <c r="AH44" s="19">
-        <v>1556055</v>
+        <v>1634861</v>
       </c>
       <c r="AI44" s="19">
-        <v>1457424</v>
+        <v>1648516</v>
       </c>
       <c r="AJ44" s="19">
-        <v>1634861</v>
+        <v>1602009</v>
       </c>
       <c r="AK44" s="19">
-        <v>1648516</v>
+        <v>1661632</v>
       </c>
       <c r="AL44" s="19">
-        <v>1602009</v>
+        <v>1612399</v>
       </c>
       <c r="AM44" s="19">
-        <v>1661632</v>
+        <v>1688226</v>
       </c>
       <c r="AN44" s="19">
-        <v>1612399</v>
+        <v>1583531</v>
       </c>
       <c r="AO44" s="19">
-        <v>1688226</v>
+        <v>968558</v>
       </c>
       <c r="AP44" s="19">
-        <v>1583531</v>
+        <v>1449560</v>
       </c>
       <c r="AQ44" s="19">
-        <v>968558</v>
+        <v>1589021</v>
       </c>
       <c r="AR44" s="19">
-        <v>1449560</v>
+        <v>1556894</v>
       </c>
       <c r="AS44" s="19">
-        <v>1589021</v>
+        <v>1588661</v>
       </c>
       <c r="AT44" s="19">
-        <v>1518591</v>
+        <v>1669435</v>
       </c>
       <c r="AU44" s="19">
-        <v>1588661</v>
+        <v>1638784</v>
       </c>
       <c r="AV44" s="19">
-        <v>1669435</v>
+        <v>1661320</v>
       </c>
       <c r="AW44" s="19">
-        <v>1638784</v>
+        <v>3397446</v>
       </c>
       <c r="AX44" s="19">
-        <v>1661320</v>
+        <v>1723385</v>
       </c>
       <c r="AY44" s="19">
-        <v>1698723</v>
+        <v>1679558</v>
       </c>
       <c r="AZ44" s="19">
-        <v>1723385</v>
+        <v>1598247</v>
       </c>
       <c r="BA44" s="19">
-        <v>1679557</v>
+        <v>1624015</v>
       </c>
       <c r="BB44" s="19">
-        <v>1598247</v>
+        <v>1556860</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -7177,95 +7177,95 @@
       <c r="X51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z51" s="11" t="s">
-        <v>58</v>
+      <c r="Y51" s="11">
+        <v>221276</v>
+      </c>
+      <c r="Z51" s="11">
+        <v>253276</v>
       </c>
       <c r="AA51" s="11">
-        <v>221276</v>
+        <v>219820</v>
       </c>
       <c r="AB51" s="11">
-        <v>253276</v>
+        <v>224672</v>
       </c>
       <c r="AC51" s="11">
-        <v>219820</v>
+        <v>195913</v>
       </c>
       <c r="AD51" s="11">
-        <v>224672</v>
+        <v>213676</v>
       </c>
       <c r="AE51" s="11">
-        <v>195913</v>
+        <v>225817</v>
       </c>
       <c r="AF51" s="11">
-        <v>213676</v>
+        <v>224370</v>
       </c>
       <c r="AG51" s="11">
-        <v>225817</v>
+        <v>251948</v>
       </c>
       <c r="AH51" s="11">
-        <v>224370</v>
+        <v>266572</v>
       </c>
       <c r="AI51" s="11">
-        <v>251948</v>
+        <v>250389</v>
       </c>
       <c r="AJ51" s="11">
-        <v>266572</v>
+        <v>216162</v>
       </c>
       <c r="AK51" s="11">
-        <v>250389</v>
+        <v>212916</v>
       </c>
       <c r="AL51" s="11">
-        <v>216162</v>
+        <v>246692</v>
       </c>
       <c r="AM51" s="11">
-        <v>212916</v>
+        <v>235958</v>
       </c>
       <c r="AN51" s="11">
-        <v>246692</v>
+        <v>240691</v>
       </c>
       <c r="AO51" s="11">
-        <v>235958</v>
+        <v>138519</v>
       </c>
       <c r="AP51" s="11">
-        <v>240691</v>
+        <v>234689</v>
       </c>
       <c r="AQ51" s="11">
-        <v>138519</v>
+        <v>272236</v>
       </c>
       <c r="AR51" s="11">
-        <v>234689</v>
+        <v>1436016</v>
       </c>
       <c r="AS51" s="11">
-        <v>272236</v>
+        <v>476742</v>
       </c>
       <c r="AT51" s="11">
-        <v>240499</v>
+        <v>371413</v>
       </c>
       <c r="AU51" s="11">
-        <v>476742</v>
+        <v>470349</v>
       </c>
       <c r="AV51" s="11">
-        <v>326864</v>
+        <v>197668</v>
       </c>
       <c r="AW51" s="11">
-        <v>379692</v>
+        <v>841520</v>
       </c>
       <c r="AX51" s="11">
-        <v>197668</v>
+        <v>605475</v>
       </c>
       <c r="AY51" s="11">
-        <v>420760</v>
+        <v>408804</v>
       </c>
       <c r="AZ51" s="11">
-        <v>605475</v>
+        <v>390611</v>
       </c>
       <c r="BA51" s="11">
-        <v>408804</v>
+        <v>364724</v>
       </c>
       <c r="BB51" s="11">
-        <v>390611</v>
+        <v>330230</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7336,95 +7336,95 @@
       <c r="X52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z52" s="13" t="s">
-        <v>58</v>
+      <c r="Y52" s="13">
+        <v>12433</v>
+      </c>
+      <c r="Z52" s="13">
+        <v>18353</v>
       </c>
       <c r="AA52" s="13">
-        <v>12433</v>
+        <v>11764</v>
       </c>
       <c r="AB52" s="13">
-        <v>18353</v>
+        <v>17757</v>
       </c>
       <c r="AC52" s="13">
-        <v>11764</v>
+        <v>16663</v>
       </c>
       <c r="AD52" s="13">
-        <v>17757</v>
+        <v>14685</v>
       </c>
       <c r="AE52" s="13">
-        <v>16663</v>
+        <v>21572</v>
       </c>
       <c r="AF52" s="13">
-        <v>14685</v>
+        <v>14978</v>
       </c>
       <c r="AG52" s="13">
-        <v>21572</v>
+        <v>14512</v>
       </c>
       <c r="AH52" s="13">
-        <v>14978</v>
+        <v>23558</v>
       </c>
       <c r="AI52" s="13">
-        <v>14512</v>
+        <v>11794</v>
       </c>
       <c r="AJ52" s="13">
-        <v>23558</v>
+        <v>11665</v>
       </c>
       <c r="AK52" s="13">
-        <v>11794</v>
+        <v>23196</v>
       </c>
       <c r="AL52" s="13">
-        <v>11665</v>
+        <v>11575</v>
       </c>
       <c r="AM52" s="13">
-        <v>23196</v>
+        <v>17262</v>
       </c>
       <c r="AN52" s="13">
-        <v>11575</v>
+        <v>17428</v>
       </c>
       <c r="AO52" s="13">
-        <v>17262</v>
+        <v>17559</v>
       </c>
       <c r="AP52" s="13">
-        <v>17428</v>
+        <v>29215</v>
       </c>
       <c r="AQ52" s="13">
-        <v>17559</v>
+        <v>20925</v>
       </c>
       <c r="AR52" s="13">
-        <v>29215</v>
+        <v>13848</v>
       </c>
       <c r="AS52" s="13">
-        <v>20925</v>
+        <v>22480</v>
       </c>
       <c r="AT52" s="13">
-        <v>17338</v>
+        <v>22843</v>
       </c>
       <c r="AU52" s="13">
-        <v>22480</v>
+        <v>22583</v>
       </c>
       <c r="AV52" s="13">
-        <v>22843</v>
+        <v>22550</v>
       </c>
       <c r="AW52" s="13">
-        <v>20616</v>
+        <v>24030</v>
       </c>
       <c r="AX52" s="13">
-        <v>22550</v>
+        <v>19965</v>
       </c>
       <c r="AY52" s="13">
-        <v>12015</v>
+        <v>17137</v>
       </c>
       <c r="AZ52" s="13">
-        <v>19965</v>
+        <v>12884</v>
       </c>
       <c r="BA52" s="13">
-        <v>17137</v>
+        <v>20013</v>
       </c>
       <c r="BB52" s="13">
-        <v>12884</v>
+        <v>19422</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7495,95 +7495,95 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>225400</v>
+      </c>
+      <c r="Z53" s="11">
+        <v>186394</v>
       </c>
       <c r="AA53" s="11">
-        <v>225400</v>
+        <v>162328</v>
       </c>
       <c r="AB53" s="11">
-        <v>186394</v>
+        <v>139136</v>
       </c>
       <c r="AC53" s="11">
-        <v>162328</v>
+        <v>124786</v>
       </c>
       <c r="AD53" s="11">
-        <v>139136</v>
+        <v>151172</v>
       </c>
       <c r="AE53" s="11">
-        <v>124786</v>
+        <v>153689</v>
       </c>
       <c r="AF53" s="11">
-        <v>151172</v>
+        <v>106040</v>
       </c>
       <c r="AG53" s="11">
-        <v>153689</v>
+        <v>149598</v>
       </c>
       <c r="AH53" s="11">
-        <v>106040</v>
+        <v>146202</v>
       </c>
       <c r="AI53" s="11">
-        <v>149598</v>
+        <v>152766</v>
       </c>
       <c r="AJ53" s="11">
-        <v>146202</v>
+        <v>131215</v>
       </c>
       <c r="AK53" s="11">
-        <v>152766</v>
+        <v>162829</v>
       </c>
       <c r="AL53" s="11">
-        <v>131215</v>
+        <v>126488</v>
       </c>
       <c r="AM53" s="11">
-        <v>162829</v>
+        <v>123486</v>
       </c>
       <c r="AN53" s="11">
-        <v>126488</v>
+        <v>133830</v>
       </c>
       <c r="AO53" s="11">
-        <v>123486</v>
+        <v>94490</v>
       </c>
       <c r="AP53" s="11">
-        <v>133830</v>
+        <v>105021</v>
       </c>
       <c r="AQ53" s="11">
-        <v>94490</v>
+        <v>133350</v>
       </c>
       <c r="AR53" s="11">
-        <v>105021</v>
+        <v>142305</v>
       </c>
       <c r="AS53" s="11">
-        <v>133350</v>
+        <v>130220</v>
       </c>
       <c r="AT53" s="11">
-        <v>142464</v>
+        <v>143178</v>
       </c>
       <c r="AU53" s="11">
-        <v>130220</v>
+        <v>108955</v>
       </c>
       <c r="AV53" s="11">
-        <v>143178</v>
+        <v>148114</v>
       </c>
       <c r="AW53" s="11">
-        <v>108955</v>
+        <v>310134</v>
       </c>
       <c r="AX53" s="11">
-        <v>148114</v>
+        <v>98806</v>
       </c>
       <c r="AY53" s="11">
-        <v>155067</v>
+        <v>159972</v>
       </c>
       <c r="AZ53" s="11">
-        <v>98806</v>
+        <v>151461</v>
       </c>
       <c r="BA53" s="11">
-        <v>159972</v>
+        <v>155466</v>
       </c>
       <c r="BB53" s="11">
-        <v>151461</v>
+        <v>184055</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7654,95 +7654,95 @@
       <c r="X54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z54" s="13" t="s">
-        <v>58</v>
+      <c r="Y54" s="13">
+        <v>173073</v>
+      </c>
+      <c r="Z54" s="13">
+        <v>244388</v>
       </c>
       <c r="AA54" s="13">
-        <v>173073</v>
+        <v>291849</v>
       </c>
       <c r="AB54" s="13">
-        <v>244388</v>
+        <v>307049</v>
       </c>
       <c r="AC54" s="13">
-        <v>291849</v>
+        <v>98950</v>
       </c>
       <c r="AD54" s="13">
-        <v>307049</v>
+        <v>198827</v>
       </c>
       <c r="AE54" s="13">
-        <v>98950</v>
+        <v>206840</v>
       </c>
       <c r="AF54" s="13">
-        <v>198827</v>
+        <v>377856</v>
       </c>
       <c r="AG54" s="13">
-        <v>206840</v>
+        <v>381818</v>
       </c>
       <c r="AH54" s="13">
-        <v>377856</v>
+        <v>442932</v>
       </c>
       <c r="AI54" s="13">
-        <v>381818</v>
+        <v>392390</v>
       </c>
       <c r="AJ54" s="13">
-        <v>442932</v>
+        <v>440427</v>
       </c>
       <c r="AK54" s="13">
-        <v>392390</v>
+        <v>384812</v>
       </c>
       <c r="AL54" s="13">
-        <v>440427</v>
+        <v>387086</v>
       </c>
       <c r="AM54" s="13">
-        <v>384812</v>
+        <v>399362</v>
       </c>
       <c r="AN54" s="13">
-        <v>387086</v>
+        <v>378631</v>
       </c>
       <c r="AO54" s="13">
-        <v>399362</v>
+        <v>201691</v>
       </c>
       <c r="AP54" s="13">
-        <v>378631</v>
+        <v>346892</v>
       </c>
       <c r="AQ54" s="13">
-        <v>201691</v>
+        <v>383977</v>
       </c>
       <c r="AR54" s="13">
-        <v>346892</v>
+        <v>401102</v>
       </c>
       <c r="AS54" s="13">
-        <v>383977</v>
+        <v>215366</v>
       </c>
       <c r="AT54" s="13">
-        <v>382672</v>
+        <v>413804</v>
       </c>
       <c r="AU54" s="13">
-        <v>215366</v>
+        <v>-335977</v>
       </c>
       <c r="AV54" s="13">
-        <v>413804</v>
+        <v>14533</v>
       </c>
       <c r="AW54" s="13">
-        <v>407622</v>
+        <v>762660</v>
       </c>
       <c r="AX54" s="13">
-        <v>14533</v>
+        <v>-218536</v>
       </c>
       <c r="AY54" s="13">
-        <v>381330</v>
+        <v>26668</v>
       </c>
       <c r="AZ54" s="13">
-        <v>-218536</v>
+        <v>393218</v>
       </c>
       <c r="BA54" s="13">
-        <v>26668</v>
+        <v>453444</v>
       </c>
       <c r="BB54" s="13">
-        <v>393218</v>
+        <v>301466</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7813,95 +7813,95 @@
       <c r="X55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z55" s="11" t="s">
-        <v>58</v>
+      <c r="Y55" s="11">
+        <v>38414</v>
+      </c>
+      <c r="Z55" s="11">
+        <v>87344</v>
       </c>
       <c r="AA55" s="11">
-        <v>38414</v>
+        <v>96099</v>
       </c>
       <c r="AB55" s="11">
-        <v>87344</v>
+        <v>52633</v>
       </c>
       <c r="AC55" s="11">
-        <v>96099</v>
+        <v>109701</v>
       </c>
       <c r="AD55" s="11">
-        <v>52633</v>
+        <v>100732</v>
       </c>
       <c r="AE55" s="11">
-        <v>109701</v>
+        <v>100470</v>
       </c>
       <c r="AF55" s="11">
-        <v>100732</v>
+        <v>109035</v>
       </c>
       <c r="AG55" s="11">
-        <v>100470</v>
+        <v>41402</v>
       </c>
       <c r="AH55" s="11">
-        <v>109035</v>
+        <v>62333</v>
       </c>
       <c r="AI55" s="11">
-        <v>41402</v>
+        <v>47406</v>
       </c>
       <c r="AJ55" s="11">
-        <v>62333</v>
+        <v>45758</v>
       </c>
       <c r="AK55" s="11">
-        <v>47406</v>
+        <v>52543</v>
       </c>
       <c r="AL55" s="11">
-        <v>45758</v>
+        <v>70184</v>
       </c>
       <c r="AM55" s="11">
-        <v>52543</v>
+        <v>60349</v>
       </c>
       <c r="AN55" s="11">
-        <v>70184</v>
+        <v>39939</v>
       </c>
       <c r="AO55" s="11">
-        <v>60349</v>
+        <v>25260</v>
       </c>
       <c r="AP55" s="11">
-        <v>39939</v>
+        <v>39108</v>
       </c>
       <c r="AQ55" s="11">
-        <v>25260</v>
+        <v>32067</v>
       </c>
       <c r="AR55" s="11">
-        <v>39108</v>
+        <v>24157</v>
       </c>
       <c r="AS55" s="11">
-        <v>32067</v>
+        <v>50286</v>
       </c>
       <c r="AT55" s="11">
-        <v>36494</v>
+        <v>30426</v>
       </c>
       <c r="AU55" s="11">
-        <v>50286</v>
+        <v>6253</v>
       </c>
       <c r="AV55" s="11">
-        <v>30426</v>
+        <v>14710</v>
       </c>
       <c r="AW55" s="11">
-        <v>63183</v>
+        <v>118094</v>
       </c>
       <c r="AX55" s="11">
-        <v>14710</v>
+        <v>-26164</v>
       </c>
       <c r="AY55" s="11">
-        <v>59047</v>
+        <v>17511</v>
       </c>
       <c r="AZ55" s="11">
-        <v>-26164</v>
+        <v>35744</v>
       </c>
       <c r="BA55" s="11">
-        <v>17511</v>
+        <v>61076</v>
       </c>
       <c r="BB55" s="11">
-        <v>35744</v>
+        <v>78497</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7972,95 +7972,95 @@
       <c r="X56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z56" s="13" t="s">
-        <v>58</v>
+      <c r="Y56" s="13">
+        <v>27521</v>
+      </c>
+      <c r="Z56" s="13">
+        <v>24096</v>
       </c>
       <c r="AA56" s="13">
-        <v>27521</v>
+        <v>33153</v>
       </c>
       <c r="AB56" s="13">
-        <v>24096</v>
+        <v>27483</v>
       </c>
       <c r="AC56" s="13">
-        <v>33153</v>
+        <v>16004</v>
       </c>
       <c r="AD56" s="13">
-        <v>27483</v>
+        <v>22131</v>
       </c>
       <c r="AE56" s="13">
-        <v>16004</v>
+        <v>23648</v>
       </c>
       <c r="AF56" s="13">
-        <v>22131</v>
+        <v>26610</v>
       </c>
       <c r="AG56" s="13">
-        <v>23648</v>
+        <v>26509</v>
       </c>
       <c r="AH56" s="13">
-        <v>26610</v>
+        <v>29583</v>
       </c>
       <c r="AI56" s="13">
-        <v>26509</v>
+        <v>22445</v>
       </c>
       <c r="AJ56" s="13">
-        <v>29583</v>
+        <v>22798</v>
       </c>
       <c r="AK56" s="13">
-        <v>22445</v>
+        <v>24795</v>
       </c>
       <c r="AL56" s="13">
-        <v>22798</v>
+        <v>29993</v>
       </c>
       <c r="AM56" s="13">
-        <v>24795</v>
+        <v>26404</v>
       </c>
       <c r="AN56" s="13">
-        <v>29993</v>
+        <v>29297</v>
       </c>
       <c r="AO56" s="13">
-        <v>26404</v>
+        <v>14886</v>
       </c>
       <c r="AP56" s="13">
-        <v>29297</v>
+        <v>24042</v>
       </c>
       <c r="AQ56" s="13">
-        <v>14886</v>
+        <v>30912</v>
       </c>
       <c r="AR56" s="13">
-        <v>24042</v>
+        <v>26439</v>
       </c>
       <c r="AS56" s="13">
-        <v>30912</v>
+        <v>37728</v>
       </c>
       <c r="AT56" s="13">
-        <v>40726</v>
+        <v>29068</v>
       </c>
       <c r="AU56" s="13">
-        <v>37728</v>
+        <v>30006</v>
       </c>
       <c r="AV56" s="13">
-        <v>29068</v>
+        <v>28959</v>
       </c>
       <c r="AW56" s="13">
-        <v>29363</v>
+        <v>62142</v>
       </c>
       <c r="AX56" s="13">
-        <v>28959</v>
+        <v>32850</v>
       </c>
       <c r="AY56" s="13">
-        <v>31071</v>
+        <v>31729</v>
       </c>
       <c r="AZ56" s="13">
-        <v>32850</v>
+        <v>31273</v>
       </c>
       <c r="BA56" s="13">
-        <v>31729</v>
+        <v>27438</v>
       </c>
       <c r="BB56" s="13">
-        <v>31273</v>
+        <v>30167</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8131,95 +8131,95 @@
       <c r="X57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z57" s="11" t="s">
-        <v>58</v>
+      <c r="Y57" s="11">
+        <v>2108</v>
+      </c>
+      <c r="Z57" s="11">
+        <v>5262</v>
       </c>
       <c r="AA57" s="11">
-        <v>2108</v>
+        <v>5429</v>
       </c>
       <c r="AB57" s="11">
-        <v>5262</v>
+        <v>1689</v>
       </c>
       <c r="AC57" s="11">
-        <v>5429</v>
+        <v>1685</v>
       </c>
       <c r="AD57" s="11">
+        <v>20</v>
+      </c>
+      <c r="AE57" s="11">
+        <v>8528</v>
+      </c>
+      <c r="AF57" s="11">
+        <v>420</v>
+      </c>
+      <c r="AG57" s="11">
+        <v>3490</v>
+      </c>
+      <c r="AH57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="11">
+        <v>6494</v>
+      </c>
+      <c r="AK57" s="11">
+        <v>3946</v>
+      </c>
+      <c r="AL57" s="11">
+        <v>2202</v>
+      </c>
+      <c r="AM57" s="11">
+        <v>3737</v>
+      </c>
+      <c r="AN57" s="11">
+        <v>5263</v>
+      </c>
+      <c r="AO57" s="11">
+        <v>2632</v>
+      </c>
+      <c r="AP57" s="11">
+        <v>2105</v>
+      </c>
+      <c r="AQ57" s="11">
+        <v>415</v>
+      </c>
+      <c r="AR57" s="11">
         <v>1689</v>
       </c>
-      <c r="AE57" s="11">
-        <v>1685</v>
-      </c>
-      <c r="AF57" s="11">
-        <v>20</v>
-      </c>
-      <c r="AG57" s="11">
-        <v>8528</v>
-      </c>
-      <c r="AH57" s="11">
-        <v>420</v>
-      </c>
-      <c r="AI57" s="11">
-        <v>3490</v>
-      </c>
-      <c r="AJ57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK57" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL57" s="11">
-        <v>6494</v>
-      </c>
-      <c r="AM57" s="11">
-        <v>3946</v>
-      </c>
-      <c r="AN57" s="11">
-        <v>2202</v>
-      </c>
-      <c r="AO57" s="11">
-        <v>3737</v>
-      </c>
-      <c r="AP57" s="11">
+      <c r="AS57" s="11">
+        <v>2645</v>
+      </c>
+      <c r="AT57" s="11">
+        <v>13</v>
+      </c>
+      <c r="AU57" s="11">
+        <v>27</v>
+      </c>
+      <c r="AV57" s="11">
+        <v>4210</v>
+      </c>
+      <c r="AW57" s="11">
+        <v>2106</v>
+      </c>
+      <c r="AX57" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AY57" s="11">
         <v>5263</v>
       </c>
-      <c r="AQ57" s="11">
+      <c r="AZ57" s="11">
+        <v>11052</v>
+      </c>
+      <c r="BA57" s="11">
+        <v>2</v>
+      </c>
+      <c r="BB57" s="11">
         <v>2632</v>
-      </c>
-      <c r="AR57" s="11">
-        <v>2105</v>
-      </c>
-      <c r="AS57" s="11">
-        <v>415</v>
-      </c>
-      <c r="AT57" s="11">
-        <v>1690</v>
-      </c>
-      <c r="AU57" s="11">
-        <v>2645</v>
-      </c>
-      <c r="AV57" s="11">
-        <v>13</v>
-      </c>
-      <c r="AW57" s="11">
-        <v>27</v>
-      </c>
-      <c r="AX57" s="11">
-        <v>4210</v>
-      </c>
-      <c r="AY57" s="11">
-        <v>1053</v>
-      </c>
-      <c r="AZ57" s="11">
-        <v>-1</v>
-      </c>
-      <c r="BA57" s="11">
-        <v>5261</v>
-      </c>
-      <c r="BB57" s="11">
-        <v>11052</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -8290,95 +8290,95 @@
       <c r="X58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z58" s="13" t="s">
-        <v>58</v>
+      <c r="Y58" s="13">
+        <v>267601</v>
+      </c>
+      <c r="Z58" s="13">
+        <v>265160</v>
       </c>
       <c r="AA58" s="13">
-        <v>267601</v>
+        <v>197413</v>
       </c>
       <c r="AB58" s="13">
-        <v>265160</v>
+        <v>249539</v>
       </c>
       <c r="AC58" s="13">
-        <v>197413</v>
+        <v>326786</v>
       </c>
       <c r="AD58" s="13">
-        <v>249539</v>
+        <v>26346</v>
       </c>
       <c r="AE58" s="13">
-        <v>326786</v>
+        <v>54033</v>
       </c>
       <c r="AF58" s="13">
-        <v>26346</v>
+        <v>120801</v>
       </c>
       <c r="AG58" s="13">
-        <v>54033</v>
+        <v>126402</v>
       </c>
       <c r="AH58" s="13">
-        <v>120801</v>
+        <v>162842</v>
       </c>
       <c r="AI58" s="13">
-        <v>126402</v>
+        <v>185041</v>
       </c>
       <c r="AJ58" s="13">
-        <v>162842</v>
+        <v>225389</v>
       </c>
       <c r="AK58" s="13">
-        <v>185041</v>
+        <v>195509</v>
       </c>
       <c r="AL58" s="13">
-        <v>225389</v>
+        <v>212872</v>
       </c>
       <c r="AM58" s="13">
-        <v>195509</v>
+        <v>214215</v>
       </c>
       <c r="AN58" s="13">
-        <v>212872</v>
+        <v>171505</v>
       </c>
       <c r="AO58" s="13">
-        <v>214215</v>
+        <v>10187</v>
       </c>
       <c r="AP58" s="13">
-        <v>171505</v>
+        <v>97980</v>
       </c>
       <c r="AQ58" s="13">
-        <v>10187</v>
+        <v>110414</v>
       </c>
       <c r="AR58" s="13">
-        <v>97980</v>
+        <v>4053927</v>
       </c>
       <c r="AS58" s="13">
-        <v>110414</v>
+        <v>555858</v>
       </c>
       <c r="AT58" s="13">
-        <v>513093</v>
+        <v>568621</v>
       </c>
       <c r="AU58" s="13">
-        <v>555858</v>
+        <v>447668</v>
       </c>
       <c r="AV58" s="13">
-        <v>217181</v>
+        <v>473317</v>
       </c>
       <c r="AW58" s="13">
-        <v>557349</v>
+        <v>1214202</v>
       </c>
       <c r="AX58" s="13">
-        <v>473317</v>
+        <v>620580</v>
       </c>
       <c r="AY58" s="13">
-        <v>607101</v>
+        <v>532439</v>
       </c>
       <c r="AZ58" s="13">
-        <v>620580</v>
+        <v>568315</v>
       </c>
       <c r="BA58" s="13">
-        <v>532439</v>
+        <v>531138</v>
       </c>
       <c r="BB58" s="13">
-        <v>568315</v>
+        <v>525196</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -8449,95 +8449,95 @@
       <c r="X59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z59" s="11" t="s">
-        <v>58</v>
+      <c r="Y59" s="11">
+        <v>4698</v>
+      </c>
+      <c r="Z59" s="11">
+        <v>1926</v>
       </c>
       <c r="AA59" s="11">
-        <v>4698</v>
+        <v>1547</v>
       </c>
       <c r="AB59" s="11">
-        <v>1926</v>
+        <v>3341</v>
       </c>
       <c r="AC59" s="11">
-        <v>1547</v>
+        <v>2828</v>
       </c>
       <c r="AD59" s="11">
-        <v>3341</v>
+        <v>5781</v>
       </c>
       <c r="AE59" s="11">
-        <v>2828</v>
+        <v>3670</v>
       </c>
       <c r="AF59" s="11">
-        <v>5781</v>
+        <v>3681</v>
       </c>
       <c r="AG59" s="11">
-        <v>3670</v>
+        <v>6589</v>
       </c>
       <c r="AH59" s="11">
-        <v>3681</v>
+        <v>1901</v>
       </c>
       <c r="AI59" s="11">
-        <v>6589</v>
+        <v>3336</v>
       </c>
       <c r="AJ59" s="11">
-        <v>1901</v>
+        <v>3869</v>
       </c>
       <c r="AK59" s="11">
-        <v>3336</v>
+        <v>2837</v>
       </c>
       <c r="AL59" s="11">
-        <v>3869</v>
+        <v>3091</v>
       </c>
       <c r="AM59" s="11">
-        <v>2837</v>
+        <v>5018</v>
       </c>
       <c r="AN59" s="11">
-        <v>3091</v>
+        <v>4662</v>
       </c>
       <c r="AO59" s="11">
-        <v>5018</v>
+        <v>3694</v>
       </c>
       <c r="AP59" s="11">
-        <v>4662</v>
+        <v>4838</v>
       </c>
       <c r="AQ59" s="11">
-        <v>3694</v>
+        <v>3508</v>
       </c>
       <c r="AR59" s="11">
-        <v>4838</v>
+        <v>3886</v>
       </c>
       <c r="AS59" s="11">
-        <v>3508</v>
+        <v>3390</v>
       </c>
       <c r="AT59" s="11">
-        <v>3886</v>
+        <v>2801</v>
       </c>
       <c r="AU59" s="11">
+        <v>1092</v>
+      </c>
+      <c r="AV59" s="11">
+        <v>4030</v>
+      </c>
+      <c r="AW59" s="11">
+        <v>7224</v>
+      </c>
+      <c r="AX59" s="11">
+        <v>3555</v>
+      </c>
+      <c r="AY59" s="11">
         <v>3390</v>
       </c>
-      <c r="AV59" s="11">
-        <v>2801</v>
-      </c>
-      <c r="AW59" s="11">
-        <v>1092</v>
-      </c>
-      <c r="AX59" s="11">
-        <v>4030</v>
-      </c>
-      <c r="AY59" s="11">
-        <v>3612</v>
-      </c>
       <c r="AZ59" s="11">
-        <v>3555</v>
+        <v>1610</v>
       </c>
       <c r="BA59" s="11">
-        <v>3390</v>
+        <v>238</v>
       </c>
       <c r="BB59" s="11">
-        <v>1610</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -8665,38 +8665,38 @@
       <c r="AQ60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT60" s="13" t="s">
-        <v>58</v>
+      <c r="AR60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT60" s="13">
+        <v>41796</v>
       </c>
       <c r="AU60" s="13">
-        <v>0</v>
+        <v>12324</v>
       </c>
       <c r="AV60" s="13">
-        <v>17687</v>
+        <v>14803</v>
       </c>
       <c r="AW60" s="13">
-        <v>12324</v>
+        <v>20758</v>
       </c>
       <c r="AX60" s="13">
-        <v>14803</v>
+        <v>20728</v>
       </c>
       <c r="AY60" s="13">
-        <v>10379</v>
+        <v>0</v>
       </c>
       <c r="AZ60" s="13">
-        <v>20728</v>
+        <v>0</v>
       </c>
       <c r="BA60" s="13">
-        <v>0</v>
+        <v>4102</v>
       </c>
       <c r="BB60" s="13">
-        <v>0</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8767,95 +8767,95 @@
       <c r="X61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z61" s="11" t="s">
-        <v>58</v>
+      <c r="Y61" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="11">
+        <v>29</v>
       </c>
       <c r="AA61" s="11">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB61" s="11">
+        <v>31</v>
+      </c>
+      <c r="AC61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="11">
+        <v>33</v>
+      </c>
+      <c r="AE61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="11">
+        <v>31</v>
+      </c>
+      <c r="AH61" s="11">
         <v>29</v>
       </c>
-      <c r="AC61" s="11">
+      <c r="AI61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="11">
+        <v>31</v>
+      </c>
+      <c r="AK61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="11">
+        <v>29</v>
+      </c>
+      <c r="AM61" s="11">
+        <v>26</v>
+      </c>
+      <c r="AN61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO61" s="11">
+        <v>24</v>
+      </c>
+      <c r="AP61" s="11">
+        <v>30</v>
+      </c>
+      <c r="AQ61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="11">
+        <v>50</v>
+      </c>
+      <c r="AT61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU61" s="11">
+        <v>3</v>
+      </c>
+      <c r="AV61" s="11">
+        <v>46</v>
+      </c>
+      <c r="AW61" s="11">
+        <v>56</v>
+      </c>
+      <c r="AX61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY61" s="11">
         <v>27</v>
       </c>
-      <c r="AD61" s="11">
-        <v>31</v>
-      </c>
-      <c r="AE61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF61" s="11">
-        <v>33</v>
-      </c>
-      <c r="AG61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI61" s="11">
-        <v>31</v>
-      </c>
-      <c r="AJ61" s="11">
-        <v>29</v>
-      </c>
-      <c r="AK61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL61" s="11">
-        <v>31</v>
-      </c>
-      <c r="AM61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN61" s="11">
-        <v>29</v>
-      </c>
-      <c r="AO61" s="11">
-        <v>26</v>
-      </c>
-      <c r="AP61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ61" s="11">
-        <v>24</v>
-      </c>
-      <c r="AR61" s="11">
+      <c r="AZ61" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA61" s="11">
+        <v>25</v>
+      </c>
+      <c r="BB61" s="11">
         <v>30</v>
-      </c>
-      <c r="AS61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU61" s="11">
-        <v>50</v>
-      </c>
-      <c r="AV61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW61" s="11">
-        <v>3</v>
-      </c>
-      <c r="AX61" s="11">
-        <v>46</v>
-      </c>
-      <c r="AY61" s="11">
-        <v>28</v>
-      </c>
-      <c r="AZ61" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA61" s="11">
-        <v>27</v>
-      </c>
-      <c r="BB61" s="11">
-        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8947,20 +8947,20 @@
       <c r="AE62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG62" s="13" t="s">
-        <v>58</v>
+      <c r="AF62" s="13">
+        <v>36</v>
+      </c>
+      <c r="AG62" s="13">
+        <v>0</v>
       </c>
       <c r="AH62" s="13">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="13">
         <v>0</v>
       </c>
-      <c r="AJ62" s="13">
-        <v>0</v>
+      <c r="AJ62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK62" s="13">
         <v>0</v>
@@ -8971,8 +8971,8 @@
       <c r="AM62" s="13">
         <v>0</v>
       </c>
-      <c r="AN62" s="13" t="s">
-        <v>58</v>
+      <c r="AN62" s="13">
+        <v>0</v>
       </c>
       <c r="AO62" s="13">
         <v>0</v>
@@ -8989,11 +8989,11 @@
       <c r="AS62" s="13">
         <v>0</v>
       </c>
-      <c r="AT62" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU62" s="13">
-        <v>0</v>
+      <c r="AT62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV62" s="13" t="s">
         <v>58</v>
@@ -9133,26 +9133,26 @@
       <c r="AN63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP63" s="11" t="s">
-        <v>58</v>
+      <c r="AO63" s="11">
+        <v>37237</v>
+      </c>
+      <c r="AP63" s="11">
+        <v>15651</v>
       </c>
       <c r="AQ63" s="11">
-        <v>37237</v>
+        <v>0</v>
       </c>
       <c r="AR63" s="11">
-        <v>15651</v>
+        <v>-52888</v>
       </c>
       <c r="AS63" s="11">
         <v>0</v>
       </c>
-      <c r="AT63" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU63" s="11">
-        <v>0</v>
+      <c r="AT63" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV63" s="11" t="s">
         <v>58</v>
@@ -9244,89 +9244,89 @@
       <c r="X64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z64" s="13" t="s">
-        <v>58</v>
+      <c r="Y64" s="13">
+        <v>6646</v>
+      </c>
+      <c r="Z64" s="13">
+        <v>14362</v>
       </c>
       <c r="AA64" s="13">
-        <v>6646</v>
+        <v>14757</v>
       </c>
       <c r="AB64" s="13">
-        <v>14362</v>
+        <v>12678</v>
       </c>
       <c r="AC64" s="13">
-        <v>14757</v>
+        <v>11137</v>
       </c>
       <c r="AD64" s="13">
-        <v>12678</v>
+        <v>12571</v>
       </c>
       <c r="AE64" s="13">
-        <v>11137</v>
+        <v>2933</v>
       </c>
       <c r="AF64" s="13">
-        <v>12571</v>
+        <v>2628</v>
       </c>
       <c r="AG64" s="13">
-        <v>2933</v>
+        <v>11680</v>
       </c>
       <c r="AH64" s="13">
-        <v>2628</v>
+        <v>1211</v>
       </c>
       <c r="AI64" s="13">
-        <v>11680</v>
+        <v>5917</v>
       </c>
       <c r="AJ64" s="13">
-        <v>1211</v>
+        <v>211</v>
       </c>
       <c r="AK64" s="13">
-        <v>5917</v>
+        <v>3193</v>
       </c>
       <c r="AL64" s="13">
-        <v>211</v>
+        <v>4061</v>
       </c>
       <c r="AM64" s="13">
-        <v>3193</v>
+        <v>9694</v>
       </c>
       <c r="AN64" s="13">
-        <v>4061</v>
+        <v>9130</v>
       </c>
       <c r="AO64" s="13">
-        <v>9694</v>
+        <v>1439</v>
       </c>
       <c r="AP64" s="13">
-        <v>9130</v>
+        <v>7021</v>
       </c>
       <c r="AQ64" s="13">
-        <v>1439</v>
+        <v>4238</v>
       </c>
       <c r="AR64" s="13">
-        <v>7021</v>
+        <v>644</v>
       </c>
       <c r="AS64" s="13">
-        <v>4238</v>
+        <v>1676</v>
       </c>
       <c r="AT64" s="13">
-        <v>642</v>
+        <v>2908</v>
       </c>
       <c r="AU64" s="13">
-        <v>1676</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="13">
-        <v>2908</v>
+        <v>75</v>
       </c>
       <c r="AW64" s="13">
-        <v>0</v>
+        <v>1820</v>
       </c>
       <c r="AX64" s="13">
-        <v>75</v>
+        <v>1940</v>
       </c>
       <c r="AY64" s="13">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="AZ64" s="13">
-        <v>1940</v>
+        <v>0</v>
       </c>
       <c r="BA64" s="13">
         <v>0</v>
@@ -9403,95 +9403,95 @@
       <c r="X65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z65" s="11" t="s">
-        <v>58</v>
+      <c r="Y65" s="11">
+        <v>1204</v>
+      </c>
+      <c r="Z65" s="11">
+        <v>4986</v>
       </c>
       <c r="AA65" s="11">
-        <v>1204</v>
+        <v>1936</v>
       </c>
       <c r="AB65" s="11">
-        <v>4986</v>
+        <v>3519</v>
       </c>
       <c r="AC65" s="11">
-        <v>1936</v>
+        <v>2253</v>
       </c>
       <c r="AD65" s="11">
-        <v>3519</v>
+        <v>5307</v>
       </c>
       <c r="AE65" s="11">
-        <v>2253</v>
+        <v>1888</v>
       </c>
       <c r="AF65" s="11">
-        <v>5307</v>
+        <v>795</v>
       </c>
       <c r="AG65" s="11">
-        <v>1888</v>
+        <v>539</v>
       </c>
       <c r="AH65" s="11">
-        <v>795</v>
+        <v>2099</v>
       </c>
       <c r="AI65" s="11">
-        <v>539</v>
+        <v>3139</v>
       </c>
       <c r="AJ65" s="11">
-        <v>2099</v>
+        <v>306</v>
       </c>
       <c r="AK65" s="11">
-        <v>3139</v>
+        <v>602</v>
       </c>
       <c r="AL65" s="11">
-        <v>306</v>
+        <v>2062</v>
       </c>
       <c r="AM65" s="11">
-        <v>602</v>
+        <v>1349</v>
       </c>
       <c r="AN65" s="11">
-        <v>2062</v>
+        <v>5684</v>
       </c>
       <c r="AO65" s="11">
-        <v>1349</v>
+        <v>2277</v>
       </c>
       <c r="AP65" s="11">
-        <v>5684</v>
+        <v>2744</v>
       </c>
       <c r="AQ65" s="11">
-        <v>2277</v>
+        <v>1346</v>
       </c>
       <c r="AR65" s="11">
-        <v>2744</v>
+        <v>757</v>
       </c>
       <c r="AS65" s="11">
-        <v>1346</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="11">
-        <v>757</v>
+        <v>1133</v>
       </c>
       <c r="AU65" s="11">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="AV65" s="11">
-        <v>1133</v>
+        <v>805</v>
       </c>
       <c r="AW65" s="11">
-        <v>348</v>
+        <v>2102</v>
       </c>
       <c r="AX65" s="11">
-        <v>805</v>
+        <v>2096</v>
       </c>
       <c r="AY65" s="11">
-        <v>1051</v>
+        <v>305</v>
       </c>
       <c r="AZ65" s="11">
-        <v>2096</v>
+        <v>1822</v>
       </c>
       <c r="BA65" s="11">
-        <v>305</v>
+        <v>19</v>
       </c>
       <c r="BB65" s="11">
-        <v>1822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -9562,26 +9562,26 @@
       <c r="X66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z66" s="13" t="s">
-        <v>58</v>
+      <c r="Y66" s="13">
+        <v>24661</v>
+      </c>
+      <c r="Z66" s="13">
+        <v>13066</v>
       </c>
       <c r="AA66" s="13">
-        <v>24661</v>
+        <v>14982</v>
       </c>
       <c r="AB66" s="13">
-        <v>13066</v>
+        <v>6037</v>
       </c>
       <c r="AC66" s="13">
-        <v>14982</v>
+        <v>31</v>
       </c>
       <c r="AD66" s="13">
-        <v>6037</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="13">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="13">
         <v>0</v>
@@ -9620,28 +9620,28 @@
         <v>0</v>
       </c>
       <c r="AR66" s="13">
-        <v>0</v>
+        <v>60178</v>
       </c>
       <c r="AS66" s="13">
-        <v>0</v>
+        <v>10504</v>
       </c>
       <c r="AT66" s="13">
         <v>0</v>
       </c>
       <c r="AU66" s="13">
-        <v>10504</v>
+        <v>0</v>
       </c>
       <c r="AV66" s="13">
-        <v>20674</v>
+        <v>0</v>
       </c>
       <c r="AW66" s="13">
         <v>0</v>
       </c>
-      <c r="AX66" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY66" s="13">
-        <v>0</v>
+      <c r="AX66" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ66" s="13" t="s">
         <v>58</v>
@@ -9721,95 +9721,95 @@
       <c r="X67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z67" s="11" t="s">
-        <v>58</v>
+      <c r="Y67" s="11">
+        <v>28327</v>
+      </c>
+      <c r="Z67" s="11">
+        <v>25618</v>
       </c>
       <c r="AA67" s="11">
-        <v>28327</v>
+        <v>29225</v>
       </c>
       <c r="AB67" s="11">
-        <v>25618</v>
+        <v>32850</v>
       </c>
       <c r="AC67" s="11">
-        <v>29225</v>
+        <v>15761</v>
       </c>
       <c r="AD67" s="11">
-        <v>32850</v>
+        <v>12529</v>
       </c>
       <c r="AE67" s="11">
-        <v>15761</v>
+        <v>17222</v>
       </c>
       <c r="AF67" s="11">
-        <v>12529</v>
+        <v>22354</v>
       </c>
       <c r="AG67" s="11">
-        <v>17222</v>
+        <v>29666</v>
       </c>
       <c r="AH67" s="11">
-        <v>22354</v>
+        <v>25013</v>
       </c>
       <c r="AI67" s="11">
-        <v>29666</v>
+        <v>46064</v>
       </c>
       <c r="AJ67" s="11">
-        <v>25013</v>
+        <v>44942</v>
       </c>
       <c r="AK67" s="11">
-        <v>46064</v>
+        <v>41416</v>
       </c>
       <c r="AL67" s="11">
-        <v>44942</v>
+        <v>39214</v>
       </c>
       <c r="AM67" s="11">
-        <v>41416</v>
+        <v>53817</v>
       </c>
       <c r="AN67" s="11">
-        <v>39214</v>
+        <v>53664</v>
       </c>
       <c r="AO67" s="11">
-        <v>53817</v>
+        <v>30730</v>
       </c>
       <c r="AP67" s="11">
-        <v>53664</v>
+        <v>38294</v>
       </c>
       <c r="AQ67" s="11">
-        <v>30730</v>
+        <v>40167</v>
       </c>
       <c r="AR67" s="11">
-        <v>38294</v>
+        <v>33957</v>
       </c>
       <c r="AS67" s="11">
-        <v>40167</v>
+        <v>33458</v>
       </c>
       <c r="AT67" s="11">
-        <v>33958</v>
+        <v>46624</v>
       </c>
       <c r="AU67" s="11">
-        <v>33458</v>
+        <v>34840</v>
       </c>
       <c r="AV67" s="11">
-        <v>46624</v>
+        <v>51536</v>
       </c>
       <c r="AW67" s="11">
-        <v>34840</v>
+        <v>97802</v>
       </c>
       <c r="AX67" s="11">
-        <v>51536</v>
+        <v>58168</v>
       </c>
       <c r="AY67" s="11">
-        <v>48901</v>
+        <v>25685</v>
       </c>
       <c r="AZ67" s="11">
-        <v>58168</v>
+        <v>27418</v>
       </c>
       <c r="BA67" s="11">
-        <v>25685</v>
+        <v>48482</v>
       </c>
       <c r="BB67" s="11">
-        <v>27418</v>
+        <v>24606</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9880,86 +9880,86 @@
       <c r="X68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z68" s="13" t="s">
-        <v>58</v>
+      <c r="Y68" s="13">
+        <v>228756</v>
+      </c>
+      <c r="Z68" s="13">
+        <v>287333</v>
       </c>
       <c r="AA68" s="13">
-        <v>228756</v>
+        <v>247532</v>
       </c>
       <c r="AB68" s="13">
-        <v>287333</v>
+        <v>265621</v>
       </c>
       <c r="AC68" s="13">
-        <v>247532</v>
+        <v>10810</v>
       </c>
       <c r="AD68" s="13">
-        <v>265621</v>
+        <v>313077</v>
       </c>
       <c r="AE68" s="13">
-        <v>10810</v>
+        <v>333719</v>
       </c>
       <c r="AF68" s="13">
-        <v>313077</v>
+        <v>347160</v>
       </c>
       <c r="AG68" s="13">
-        <v>333719</v>
+        <v>355406</v>
       </c>
       <c r="AH68" s="13">
-        <v>347160</v>
+        <v>381383</v>
       </c>
       <c r="AI68" s="13">
-        <v>355406</v>
+        <v>377992</v>
       </c>
       <c r="AJ68" s="13">
-        <v>381383</v>
+        <v>305898</v>
       </c>
       <c r="AK68" s="13">
-        <v>377992</v>
+        <v>335361</v>
       </c>
       <c r="AL68" s="13">
-        <v>305898</v>
+        <v>330774</v>
       </c>
       <c r="AM68" s="13">
-        <v>335361</v>
+        <v>385298</v>
       </c>
       <c r="AN68" s="13">
-        <v>330774</v>
+        <v>348200</v>
       </c>
       <c r="AO68" s="13">
-        <v>385298</v>
+        <v>391775</v>
       </c>
       <c r="AP68" s="13">
-        <v>348200</v>
+        <v>330287</v>
       </c>
       <c r="AQ68" s="13">
-        <v>391775</v>
+        <v>409914</v>
       </c>
       <c r="AR68" s="13">
-        <v>330287</v>
+        <v>-3596882</v>
       </c>
       <c r="AS68" s="13">
-        <v>409914</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="13">
-        <v>40297</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="13">
         <v>0</v>
       </c>
       <c r="AV68" s="13">
-        <v>351440</v>
-      </c>
-      <c r="AW68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX68" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY68" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AW68" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ68" s="13" t="s">
         <v>58</v>
@@ -10039,68 +10039,68 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>15999</v>
+      </c>
+      <c r="Z69" s="11">
+        <v>15623</v>
       </c>
       <c r="AA69" s="11">
-        <v>15999</v>
+        <v>17595</v>
       </c>
       <c r="AB69" s="11">
-        <v>15623</v>
+        <v>14494</v>
       </c>
       <c r="AC69" s="11">
-        <v>17595</v>
+        <v>4063</v>
       </c>
       <c r="AD69" s="11">
-        <v>14494</v>
+        <v>2146</v>
       </c>
       <c r="AE69" s="11">
-        <v>4063</v>
+        <v>244</v>
       </c>
       <c r="AF69" s="11">
-        <v>2146</v>
+        <v>0</v>
       </c>
       <c r="AG69" s="11">
-        <v>244</v>
+        <v>3841</v>
       </c>
       <c r="AH69" s="11">
         <v>0</v>
       </c>
       <c r="AI69" s="11">
-        <v>3841</v>
+        <v>0</v>
       </c>
       <c r="AJ69" s="11">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="AK69" s="11">
-        <v>0</v>
+        <v>11458</v>
       </c>
       <c r="AL69" s="11">
-        <v>308</v>
+        <v>5203</v>
       </c>
       <c r="AM69" s="11">
-        <v>11458</v>
+        <v>10659</v>
       </c>
       <c r="AN69" s="11">
-        <v>5203</v>
+        <v>21009</v>
       </c>
       <c r="AO69" s="11">
-        <v>10659</v>
+        <v>0</v>
       </c>
       <c r="AP69" s="11">
-        <v>21009</v>
+        <v>4421</v>
       </c>
       <c r="AQ69" s="11">
-        <v>0</v>
+        <v>4411</v>
       </c>
       <c r="AR69" s="11">
-        <v>4421</v>
+        <v>-60178</v>
       </c>
       <c r="AS69" s="11">
-        <v>4411</v>
+        <v>0</v>
       </c>
       <c r="AT69" s="11">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="AV69" s="11">
-        <v>3435</v>
-      </c>
-      <c r="AW69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX69" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY69" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AW69" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX69" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY69" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ69" s="11" t="s">
         <v>58</v>
@@ -10198,86 +10198,86 @@
       <c r="X70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z70" s="13" t="s">
-        <v>58</v>
+      <c r="Y70" s="13">
+        <v>117022</v>
+      </c>
+      <c r="Z70" s="13">
+        <v>104923</v>
       </c>
       <c r="AA70" s="13">
-        <v>117022</v>
+        <v>153387</v>
       </c>
       <c r="AB70" s="13">
-        <v>104923</v>
+        <v>148244</v>
       </c>
       <c r="AC70" s="13">
-        <v>153387</v>
+        <v>112906</v>
       </c>
       <c r="AD70" s="13">
-        <v>148244</v>
+        <v>126567</v>
       </c>
       <c r="AE70" s="13">
-        <v>112906</v>
+        <v>105382</v>
       </c>
       <c r="AF70" s="13">
-        <v>126567</v>
+        <v>129284</v>
       </c>
       <c r="AG70" s="13">
-        <v>105382</v>
+        <v>160943</v>
       </c>
       <c r="AH70" s="13">
-        <v>129284</v>
+        <v>114071</v>
       </c>
       <c r="AI70" s="13">
-        <v>160943</v>
+        <v>145318</v>
       </c>
       <c r="AJ70" s="13">
-        <v>114071</v>
+        <v>146665</v>
       </c>
       <c r="AK70" s="13">
-        <v>145318</v>
+        <v>161416</v>
       </c>
       <c r="AL70" s="13">
-        <v>146665</v>
+        <v>159269</v>
       </c>
       <c r="AM70" s="13">
-        <v>161416</v>
+        <v>140617</v>
       </c>
       <c r="AN70" s="13">
-        <v>159269</v>
+        <v>130902</v>
       </c>
       <c r="AO70" s="13">
-        <v>140617</v>
+        <v>99528</v>
       </c>
       <c r="AP70" s="13">
-        <v>130902</v>
+        <v>76135</v>
       </c>
       <c r="AQ70" s="13">
-        <v>99528</v>
+        <v>112554</v>
       </c>
       <c r="AR70" s="13">
-        <v>76135</v>
+        <v>-1286475</v>
       </c>
       <c r="AS70" s="13">
-        <v>112554</v>
+        <v>0</v>
       </c>
       <c r="AT70" s="13">
-        <v>25777</v>
+        <v>0</v>
       </c>
       <c r="AU70" s="13">
         <v>0</v>
       </c>
       <c r="AV70" s="13">
-        <v>44549</v>
-      </c>
-      <c r="AW70" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX70" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY70" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AW70" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX70" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY70" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ70" s="13" t="s">
         <v>58</v>
@@ -10356,94 +10356,94 @@
         <v>0</v>
       </c>
       <c r="Y71" s="15">
-        <v>0</v>
+        <v>1395139</v>
       </c>
       <c r="Z71" s="15">
-        <v>0</v>
+        <v>1552139</v>
       </c>
       <c r="AA71" s="15">
-        <v>1395139</v>
+        <v>1498843</v>
       </c>
       <c r="AB71" s="15">
-        <v>1552139</v>
+        <v>1506773</v>
       </c>
       <c r="AC71" s="15">
-        <v>1498843</v>
+        <v>1050277</v>
       </c>
       <c r="AD71" s="15">
-        <v>1506773</v>
+        <v>1205600</v>
       </c>
       <c r="AE71" s="15">
-        <v>1050277</v>
+        <v>1259655</v>
       </c>
       <c r="AF71" s="15">
-        <v>1205600</v>
+        <v>1486048</v>
       </c>
       <c r="AG71" s="15">
-        <v>1259655</v>
+        <v>1564374</v>
       </c>
       <c r="AH71" s="15">
-        <v>1486048</v>
+        <v>1659729</v>
       </c>
       <c r="AI71" s="15">
-        <v>1564374</v>
+        <v>1643997</v>
       </c>
       <c r="AJ71" s="15">
-        <v>1659729</v>
+        <v>1602138</v>
       </c>
       <c r="AK71" s="15">
-        <v>1643997</v>
+        <v>1616829</v>
       </c>
       <c r="AL71" s="15">
-        <v>1602138</v>
+        <v>1630795</v>
       </c>
       <c r="AM71" s="15">
-        <v>1616829</v>
+        <v>1687251</v>
       </c>
       <c r="AN71" s="15">
-        <v>1630795</v>
+        <v>1589835</v>
       </c>
       <c r="AO71" s="15">
-        <v>1687251</v>
+        <v>1071928</v>
       </c>
       <c r="AP71" s="15">
-        <v>1589835</v>
+        <v>1358473</v>
       </c>
       <c r="AQ71" s="15">
-        <v>1071928</v>
+        <v>1560434</v>
       </c>
       <c r="AR71" s="15">
-        <v>1358473</v>
+        <v>1202482</v>
       </c>
       <c r="AS71" s="15">
-        <v>1560434</v>
+        <v>1540403</v>
       </c>
       <c r="AT71" s="15">
-        <v>1480293</v>
+        <v>1674628</v>
       </c>
       <c r="AU71" s="15">
-        <v>1540403</v>
+        <v>798471</v>
       </c>
       <c r="AV71" s="15">
-        <v>1674628</v>
+        <v>975356</v>
       </c>
       <c r="AW71" s="15">
-        <v>1615414</v>
+        <v>3464650</v>
       </c>
       <c r="AX71" s="15">
-        <v>975356</v>
+        <v>1219462</v>
       </c>
       <c r="AY71" s="15">
-        <v>1732325</v>
+        <v>1228930</v>
       </c>
       <c r="AZ71" s="15">
-        <v>1219462</v>
+        <v>1625408</v>
       </c>
       <c r="BA71" s="15">
-        <v>1228928</v>
+        <v>1666167</v>
       </c>
       <c r="BB71" s="15">
-        <v>1625408</v>
+        <v>1502727</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -10571,11 +10571,11 @@
       <c r="X73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z73" s="11" t="s">
-        <v>58</v>
+      <c r="Y73" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="11">
+        <v>0</v>
       </c>
       <c r="AA73" s="11">
         <v>0</v>
@@ -10601,11 +10601,11 @@
       <c r="AH73" s="11">
         <v>0</v>
       </c>
-      <c r="AI73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ73" s="11">
-        <v>0</v>
+      <c r="AI73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK73" s="11" t="s">
         <v>58</v>
@@ -10628,17 +10628,17 @@
       <c r="AQ73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS73" s="11" t="s">
-        <v>58</v>
+      <c r="AR73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="11">
+        <v>0</v>
       </c>
       <c r="AT73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU73" s="11">
-        <v>0</v>
+      <c r="AU73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV73" s="11" t="s">
         <v>58</v>
@@ -10646,17 +10646,17 @@
       <c r="AW73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY73" s="11" t="s">
-        <v>58</v>
+      <c r="AX73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY73" s="11">
+        <v>-29356</v>
       </c>
       <c r="AZ73" s="11">
         <v>0</v>
       </c>
       <c r="BA73" s="11">
-        <v>15278</v>
+        <v>0</v>
       </c>
       <c r="BB73" s="11">
         <v>0</v>
@@ -10730,11 +10730,11 @@
       <c r="X74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z74" s="13" t="s">
-        <v>58</v>
+      <c r="Y74" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="13">
+        <v>0</v>
       </c>
       <c r="AA74" s="13">
         <v>0</v>
@@ -10760,11 +10760,11 @@
       <c r="AH74" s="13">
         <v>0</v>
       </c>
-      <c r="AI74" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ74" s="13">
-        <v>0</v>
+      <c r="AI74" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK74" s="13" t="s">
         <v>58</v>
@@ -10787,17 +10787,17 @@
       <c r="AQ74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS74" s="13" t="s">
-        <v>58</v>
+      <c r="AR74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS74" s="13">
+        <v>0</v>
       </c>
       <c r="AT74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU74" s="13">
-        <v>0</v>
+      <c r="AU74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV74" s="13" t="s">
         <v>58</v>
@@ -10805,17 +10805,17 @@
       <c r="AW74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY74" s="13" t="s">
-        <v>58</v>
+      <c r="AX74" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY74" s="13">
+        <v>-665204</v>
       </c>
       <c r="AZ74" s="13">
         <v>0</v>
       </c>
       <c r="BA74" s="13">
-        <v>321283</v>
+        <v>0</v>
       </c>
       <c r="BB74" s="13">
         <v>0</v>
@@ -10964,17 +10964,17 @@
       <c r="AW75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY75" s="11" t="s">
-        <v>58</v>
+      <c r="AX75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY75" s="11">
+        <v>-30703</v>
       </c>
       <c r="AZ75" s="11">
         <v>0</v>
       </c>
       <c r="BA75" s="11">
-        <v>28063</v>
+        <v>0</v>
       </c>
       <c r="BB75" s="11">
         <v>0</v>
@@ -11075,14 +11075,14 @@
       <c r="AG76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH76" s="13" t="s">
-        <v>58</v>
+      <c r="AH76" s="13">
+        <v>0</v>
       </c>
       <c r="AI76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ76" s="13">
-        <v>0</v>
+      <c r="AJ76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK76" s="13" t="s">
         <v>58</v>
@@ -11105,17 +11105,17 @@
       <c r="AQ76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS76" s="13" t="s">
-        <v>58</v>
+      <c r="AR76" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS76" s="13">
+        <v>0</v>
       </c>
       <c r="AT76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU76" s="13">
-        <v>0</v>
+      <c r="AU76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV76" s="13" t="s">
         <v>58</v>
@@ -11207,11 +11207,11 @@
       <c r="X77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z77" s="11" t="s">
-        <v>58</v>
+      <c r="Y77" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="11">
+        <v>0</v>
       </c>
       <c r="AA77" s="11">
         <v>0</v>
@@ -11237,11 +11237,11 @@
       <c r="AH77" s="11">
         <v>0</v>
       </c>
-      <c r="AI77" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ77" s="11">
-        <v>0</v>
+      <c r="AI77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK77" s="11" t="s">
         <v>58</v>
@@ -11264,17 +11264,17 @@
       <c r="AQ77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS77" s="11" t="s">
-        <v>58</v>
+      <c r="AR77" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS77" s="11">
+        <v>0</v>
       </c>
       <c r="AT77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU77" s="11">
-        <v>0</v>
+      <c r="AU77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV77" s="11" t="s">
         <v>58</v>
@@ -11282,17 +11282,17 @@
       <c r="AW77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY77" s="11" t="s">
-        <v>58</v>
+      <c r="AX77" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY77" s="11">
+        <v>-40750</v>
       </c>
       <c r="AZ77" s="11">
         <v>0</v>
       </c>
       <c r="BA77" s="11">
-        <v>20758</v>
+        <v>0</v>
       </c>
       <c r="BB77" s="11">
         <v>0</v>
@@ -11393,14 +11393,14 @@
       <c r="AG78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH78" s="13" t="s">
-        <v>58</v>
+      <c r="AH78" s="13">
+        <v>0</v>
       </c>
       <c r="AI78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ78" s="13">
-        <v>0</v>
+      <c r="AJ78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK78" s="13" t="s">
         <v>58</v>
@@ -11552,14 +11552,14 @@
       <c r="AG79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH79" s="11" t="s">
-        <v>58</v>
+      <c r="AH79" s="11">
+        <v>0</v>
       </c>
       <c r="AI79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ79" s="11">
-        <v>0</v>
+      <c r="AJ79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK79" s="11" t="s">
         <v>58</v>
@@ -11684,11 +11684,11 @@
       <c r="X80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z80" s="13" t="s">
-        <v>58</v>
+      <c r="Y80" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="13">
+        <v>0</v>
       </c>
       <c r="AA80" s="13">
         <v>0</v>
@@ -11714,11 +11714,11 @@
       <c r="AH80" s="13">
         <v>0</v>
       </c>
-      <c r="AI80" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ80" s="13">
-        <v>0</v>
+      <c r="AI80" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK80" s="13" t="s">
         <v>58</v>
@@ -11741,17 +11741,17 @@
       <c r="AQ80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS80" s="13" t="s">
-        <v>58</v>
+      <c r="AR80" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS80" s="13">
+        <v>0</v>
       </c>
       <c r="AT80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU80" s="13">
-        <v>0</v>
+      <c r="AU80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV80" s="13" t="s">
         <v>58</v>
@@ -11920,13 +11920,13 @@
         <v>0</v>
       </c>
       <c r="AY81" s="15">
-        <v>0</v>
+        <v>-766013</v>
       </c>
       <c r="AZ81" s="15">
         <v>0</v>
       </c>
       <c r="BA81" s="15">
-        <v>385382</v>
+        <v>0</v>
       </c>
       <c r="BB81" s="15">
         <v>0</v>
@@ -12055,11 +12055,11 @@
       <c r="X83" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z83" s="15" t="s">
-        <v>58</v>
+      <c r="Y83" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="15">
+        <v>0</v>
       </c>
       <c r="AA83" s="15">
         <v>0</v>
@@ -12269,11 +12269,11 @@
       <c r="X85" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y85" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z85" s="15" t="s">
-        <v>58</v>
+      <c r="Y85" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="15">
+        <v>0</v>
       </c>
       <c r="AA85" s="15">
         <v>0</v>
@@ -12427,94 +12427,94 @@
         <v>0</v>
       </c>
       <c r="Y86" s="19">
-        <v>0</v>
+        <v>1395139</v>
       </c>
       <c r="Z86" s="19">
-        <v>0</v>
+        <v>1552139</v>
       </c>
       <c r="AA86" s="19">
-        <v>1395139</v>
+        <v>1498843</v>
       </c>
       <c r="AB86" s="19">
-        <v>1552139</v>
+        <v>1506773</v>
       </c>
       <c r="AC86" s="19">
-        <v>1498843</v>
+        <v>1050277</v>
       </c>
       <c r="AD86" s="19">
-        <v>1506773</v>
+        <v>1205600</v>
       </c>
       <c r="AE86" s="19">
-        <v>1050277</v>
+        <v>1259655</v>
       </c>
       <c r="AF86" s="19">
-        <v>1205600</v>
+        <v>1486048</v>
       </c>
       <c r="AG86" s="19">
-        <v>1259655</v>
+        <v>1564374</v>
       </c>
       <c r="AH86" s="19">
-        <v>1486048</v>
+        <v>1659729</v>
       </c>
       <c r="AI86" s="19">
-        <v>1564374</v>
+        <v>1643997</v>
       </c>
       <c r="AJ86" s="19">
-        <v>1659729</v>
+        <v>1602138</v>
       </c>
       <c r="AK86" s="19">
-        <v>1643997</v>
+        <v>1616829</v>
       </c>
       <c r="AL86" s="19">
-        <v>1602138</v>
+        <v>1630795</v>
       </c>
       <c r="AM86" s="19">
-        <v>1616829</v>
+        <v>1687251</v>
       </c>
       <c r="AN86" s="19">
-        <v>1630795</v>
+        <v>1589835</v>
       </c>
       <c r="AO86" s="19">
-        <v>1687251</v>
+        <v>1071928</v>
       </c>
       <c r="AP86" s="19">
-        <v>1589835</v>
+        <v>1358473</v>
       </c>
       <c r="AQ86" s="19">
-        <v>1071928</v>
+        <v>1560434</v>
       </c>
       <c r="AR86" s="19">
-        <v>1358473</v>
+        <v>1202482</v>
       </c>
       <c r="AS86" s="19">
-        <v>1560434</v>
+        <v>1540403</v>
       </c>
       <c r="AT86" s="19">
-        <v>1480293</v>
+        <v>1674628</v>
       </c>
       <c r="AU86" s="19">
-        <v>1540403</v>
+        <v>798471</v>
       </c>
       <c r="AV86" s="19">
-        <v>1674628</v>
+        <v>975356</v>
       </c>
       <c r="AW86" s="19">
-        <v>1615414</v>
+        <v>3464650</v>
       </c>
       <c r="AX86" s="19">
-        <v>975356</v>
+        <v>1219462</v>
       </c>
       <c r="AY86" s="19">
-        <v>1732325</v>
+        <v>462917</v>
       </c>
       <c r="AZ86" s="19">
-        <v>1219462</v>
+        <v>1625408</v>
       </c>
       <c r="BA86" s="19">
-        <v>1614310</v>
+        <v>1666167</v>
       </c>
       <c r="BB86" s="19">
-        <v>1625408</v>
+        <v>1502727</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -13019,11 +13019,11 @@
       <c r="X93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y93" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z93" s="11" t="s">
-        <v>58</v>
+      <c r="Y93" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="11">
+        <v>0</v>
       </c>
       <c r="AA93" s="11">
         <v>0</v>
@@ -13077,34 +13077,34 @@
         <v>0</v>
       </c>
       <c r="AR93" s="11">
-        <v>0</v>
+        <v>429293986</v>
       </c>
       <c r="AS93" s="11">
-        <v>0</v>
+        <v>73927860</v>
       </c>
       <c r="AT93" s="11">
         <v>0</v>
       </c>
       <c r="AU93" s="11">
-        <v>73927860</v>
+        <v>155553221</v>
       </c>
       <c r="AV93" s="11">
-        <v>0</v>
+        <v>40459073</v>
       </c>
       <c r="AW93" s="11">
         <v>0</v>
       </c>
       <c r="AX93" s="11">
-        <v>40459073</v>
+        <v>193428162</v>
       </c>
       <c r="AY93" s="11">
-        <v>0</v>
+        <v>84365183</v>
       </c>
       <c r="AZ93" s="11">
-        <v>193428162</v>
+        <v>0</v>
       </c>
       <c r="BA93" s="11">
-        <v>62716634</v>
+        <v>0</v>
       </c>
       <c r="BB93" s="11">
         <v>0</v>
@@ -13178,11 +13178,11 @@
       <c r="X94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y94" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z94" s="13" t="s">
-        <v>58</v>
+      <c r="Y94" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="13">
+        <v>0</v>
       </c>
       <c r="AA94" s="13">
         <v>0</v>
@@ -13236,34 +13236,34 @@
         <v>0</v>
       </c>
       <c r="AR94" s="13">
-        <v>0</v>
+        <v>22455110</v>
       </c>
       <c r="AS94" s="13">
-        <v>0</v>
+        <v>3419460</v>
       </c>
       <c r="AT94" s="13">
         <v>0</v>
       </c>
       <c r="AU94" s="13">
-        <v>3419460</v>
+        <v>9475874</v>
       </c>
       <c r="AV94" s="13">
-        <v>0</v>
+        <v>5367858</v>
       </c>
       <c r="AW94" s="13">
         <v>0</v>
       </c>
       <c r="AX94" s="13">
-        <v>5367858</v>
+        <v>7563345</v>
       </c>
       <c r="AY94" s="13">
-        <v>0</v>
+        <v>3448828</v>
       </c>
       <c r="AZ94" s="13">
-        <v>7563345</v>
+        <v>0</v>
       </c>
       <c r="BA94" s="13">
-        <v>3658467</v>
+        <v>0</v>
       </c>
       <c r="BB94" s="13">
         <v>0</v>
@@ -13337,11 +13337,11 @@
       <c r="X95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y95" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z95" s="11" t="s">
-        <v>58</v>
+      <c r="Y95" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="11">
+        <v>0</v>
       </c>
       <c r="AA95" s="11">
         <v>0</v>
@@ -13395,34 +13395,34 @@
         <v>0</v>
       </c>
       <c r="AR95" s="11">
-        <v>0</v>
+        <v>112485275</v>
       </c>
       <c r="AS95" s="11">
-        <v>0</v>
+        <v>14421531</v>
       </c>
       <c r="AT95" s="11">
         <v>0</v>
       </c>
       <c r="AU95" s="11">
-        <v>14421531</v>
+        <v>27821292</v>
       </c>
       <c r="AV95" s="11">
-        <v>0</v>
+        <v>15006190</v>
       </c>
       <c r="AW95" s="11">
         <v>0</v>
       </c>
       <c r="AX95" s="11">
-        <v>15006190</v>
+        <v>22805948</v>
       </c>
       <c r="AY95" s="11">
-        <v>0</v>
+        <v>14939924</v>
       </c>
       <c r="AZ95" s="11">
-        <v>22805948</v>
+        <v>0</v>
       </c>
       <c r="BA95" s="11">
-        <v>14939924</v>
+        <v>0</v>
       </c>
       <c r="BB95" s="11">
         <v>0</v>
@@ -13496,11 +13496,11 @@
       <c r="X96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z96" s="13" t="s">
-        <v>58</v>
+      <c r="Y96" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="13">
+        <v>0</v>
       </c>
       <c r="AA96" s="13">
         <v>0</v>
@@ -13554,34 +13554,34 @@
         <v>0</v>
       </c>
       <c r="AR96" s="13">
-        <v>0</v>
+        <v>55788270</v>
       </c>
       <c r="AS96" s="13">
-        <v>0</v>
+        <v>348416456</v>
       </c>
       <c r="AT96" s="13">
         <v>0</v>
       </c>
       <c r="AU96" s="13">
-        <v>348416456</v>
+        <v>11954449</v>
       </c>
       <c r="AV96" s="13">
-        <v>0</v>
+        <v>2069918</v>
       </c>
       <c r="AW96" s="13">
         <v>0</v>
       </c>
       <c r="AX96" s="13">
-        <v>2069918</v>
+        <v>20204050</v>
       </c>
       <c r="AY96" s="13">
-        <v>0</v>
+        <v>12920213</v>
       </c>
       <c r="AZ96" s="13">
-        <v>20204050</v>
+        <v>0</v>
       </c>
       <c r="BA96" s="13">
-        <v>2662122</v>
+        <v>0</v>
       </c>
       <c r="BB96" s="13">
         <v>0</v>
@@ -13655,11 +13655,11 @@
       <c r="X97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z97" s="11" t="s">
-        <v>58</v>
+      <c r="Y97" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="11">
+        <v>0</v>
       </c>
       <c r="AA97" s="11">
         <v>0</v>
@@ -13713,34 +13713,34 @@
         <v>0</v>
       </c>
       <c r="AR97" s="11">
-        <v>0</v>
+        <v>60464194</v>
       </c>
       <c r="AS97" s="11">
-        <v>0</v>
+        <v>9147524</v>
       </c>
       <c r="AT97" s="11">
         <v>0</v>
       </c>
       <c r="AU97" s="11">
-        <v>9147524</v>
+        <v>7614013</v>
       </c>
       <c r="AV97" s="11">
-        <v>0</v>
+        <v>3545694</v>
       </c>
       <c r="AW97" s="11">
         <v>0</v>
       </c>
       <c r="AX97" s="11">
-        <v>3545694</v>
+        <v>6919992</v>
       </c>
       <c r="AY97" s="11">
-        <v>0</v>
+        <v>4391893</v>
       </c>
       <c r="AZ97" s="11">
-        <v>6919992</v>
+        <v>0</v>
       </c>
       <c r="BA97" s="11">
-        <v>3680172</v>
+        <v>0</v>
       </c>
       <c r="BB97" s="11">
         <v>0</v>
@@ -13814,11 +13814,11 @@
       <c r="X98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z98" s="13" t="s">
-        <v>58</v>
+      <c r="Y98" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="13">
+        <v>0</v>
       </c>
       <c r="AA98" s="13">
         <v>0</v>
@@ -13872,34 +13872,34 @@
         <v>0</v>
       </c>
       <c r="AR98" s="13">
-        <v>0</v>
+        <v>24287294</v>
       </c>
       <c r="AS98" s="13">
-        <v>0</v>
+        <v>4458495</v>
       </c>
       <c r="AT98" s="13">
         <v>0</v>
       </c>
       <c r="AU98" s="13">
-        <v>4458495</v>
+        <v>6919954</v>
       </c>
       <c r="AV98" s="13">
-        <v>0</v>
+        <v>2932429</v>
       </c>
       <c r="AW98" s="13">
         <v>0</v>
       </c>
       <c r="AX98" s="13">
-        <v>2932429</v>
+        <v>6112860</v>
       </c>
       <c r="AY98" s="13">
-        <v>0</v>
+        <v>2961343</v>
       </c>
       <c r="AZ98" s="13">
-        <v>6112860</v>
+        <v>0</v>
       </c>
       <c r="BA98" s="13">
-        <v>2955340</v>
+        <v>0</v>
       </c>
       <c r="BB98" s="13">
         <v>0</v>
@@ -13973,11 +13973,11 @@
       <c r="X99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y99" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z99" s="11" t="s">
-        <v>58</v>
+      <c r="Y99" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="11">
+        <v>0</v>
       </c>
       <c r="AA99" s="11">
         <v>0</v>
@@ -14031,34 +14031,34 @@
         <v>0</v>
       </c>
       <c r="AR99" s="11">
-        <v>0</v>
+        <v>2247946</v>
       </c>
       <c r="AS99" s="11">
-        <v>0</v>
+        <v>345835</v>
       </c>
       <c r="AT99" s="11">
         <v>0</v>
       </c>
       <c r="AU99" s="11">
-        <v>345835</v>
+        <v>4990</v>
       </c>
       <c r="AV99" s="11">
-        <v>0</v>
+        <v>766287</v>
       </c>
       <c r="AW99" s="11">
         <v>0</v>
       </c>
       <c r="AX99" s="11">
-        <v>766287</v>
+        <v>212918</v>
       </c>
       <c r="AY99" s="11">
-        <v>0</v>
+        <v>187830</v>
       </c>
       <c r="AZ99" s="11">
-        <v>212918</v>
+        <v>0</v>
       </c>
       <c r="BA99" s="11">
-        <v>187830</v>
+        <v>0</v>
       </c>
       <c r="BB99" s="11">
         <v>0</v>
@@ -14132,11 +14132,11 @@
       <c r="X100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z100" s="13" t="s">
-        <v>58</v>
+      <c r="Y100" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="13">
+        <v>0</v>
       </c>
       <c r="AA100" s="13">
         <v>0</v>
@@ -14190,34 +14190,34 @@
         <v>0</v>
       </c>
       <c r="AR100" s="13">
-        <v>0</v>
+        <v>649439622</v>
       </c>
       <c r="AS100" s="13">
-        <v>0</v>
+        <v>100918604</v>
       </c>
       <c r="AT100" s="13">
         <v>0</v>
       </c>
       <c r="AU100" s="13">
-        <v>100918604</v>
+        <v>222046789</v>
       </c>
       <c r="AV100" s="13">
-        <v>0</v>
+        <v>116800343</v>
       </c>
       <c r="AW100" s="13">
         <v>0</v>
       </c>
       <c r="AX100" s="13">
-        <v>116800343</v>
+        <v>278176404</v>
       </c>
       <c r="AY100" s="13">
-        <v>0</v>
+        <v>132190553</v>
       </c>
       <c r="AZ100" s="13">
-        <v>278176404</v>
+        <v>0</v>
       </c>
       <c r="BA100" s="13">
-        <v>113707977</v>
+        <v>0</v>
       </c>
       <c r="BB100" s="13">
         <v>0</v>
@@ -14291,11 +14291,11 @@
       <c r="X101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z101" s="11" t="s">
-        <v>58</v>
+      <c r="Y101" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="11">
+        <v>0</v>
       </c>
       <c r="AA101" s="11">
         <v>0</v>
@@ -14349,34 +14349,34 @@
         <v>0</v>
       </c>
       <c r="AR101" s="11">
-        <v>0</v>
+        <v>4636302</v>
       </c>
       <c r="AS101" s="11">
-        <v>0</v>
+        <v>497555</v>
       </c>
       <c r="AT101" s="11">
         <v>0</v>
       </c>
       <c r="AU101" s="11">
-        <v>497555</v>
+        <v>704718</v>
       </c>
       <c r="AV101" s="11">
-        <v>0</v>
+        <v>780265</v>
       </c>
       <c r="AW101" s="11">
         <v>0</v>
       </c>
       <c r="AX101" s="11">
-        <v>780265</v>
+        <v>1269046</v>
       </c>
       <c r="AY101" s="11">
-        <v>0</v>
+        <v>564265</v>
       </c>
       <c r="AZ101" s="11">
-        <v>1269046</v>
+        <v>0</v>
       </c>
       <c r="BA101" s="11">
-        <v>564265</v>
+        <v>0</v>
       </c>
       <c r="BB101" s="11">
         <v>0</v>
@@ -14507,32 +14507,32 @@
       <c r="AQ102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT102" s="13" t="s">
-        <v>58</v>
+      <c r="AR102" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS102" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT102" s="13">
+        <v>0</v>
       </c>
       <c r="AU102" s="13">
-        <v>0</v>
+        <v>6996790</v>
       </c>
       <c r="AV102" s="13">
-        <v>0</v>
+        <v>2049601</v>
       </c>
       <c r="AW102" s="13">
         <v>0</v>
       </c>
       <c r="AX102" s="13">
-        <v>2049601</v>
+        <v>3849802</v>
       </c>
       <c r="AY102" s="13">
         <v>0</v>
       </c>
       <c r="AZ102" s="13">
-        <v>3849802</v>
+        <v>0</v>
       </c>
       <c r="BA102" s="13">
         <v>0</v>
@@ -14609,11 +14609,11 @@
       <c r="X103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z103" s="11" t="s">
-        <v>58</v>
+      <c r="Y103" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="11">
+        <v>0</v>
       </c>
       <c r="AA103" s="11">
         <v>0</v>
@@ -14667,34 +14667,34 @@
         <v>0</v>
       </c>
       <c r="AR103" s="11">
-        <v>0</v>
+        <v>14323</v>
       </c>
       <c r="AS103" s="11">
-        <v>0</v>
+        <v>4808</v>
       </c>
       <c r="AT103" s="11">
         <v>0</v>
       </c>
       <c r="AU103" s="11">
-        <v>4808</v>
+        <v>339</v>
       </c>
       <c r="AV103" s="11">
-        <v>0</v>
+        <v>4595</v>
       </c>
       <c r="AW103" s="11">
         <v>0</v>
       </c>
       <c r="AX103" s="11">
-        <v>4595</v>
+        <v>2661</v>
       </c>
       <c r="AY103" s="11">
-        <v>0</v>
+        <v>2281</v>
       </c>
       <c r="AZ103" s="11">
-        <v>2661</v>
+        <v>0</v>
       </c>
       <c r="BA103" s="11">
-        <v>2281</v>
+        <v>0</v>
       </c>
       <c r="BB103" s="11">
         <v>0</v>
@@ -14789,11 +14789,11 @@
       <c r="AE104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG104" s="13" t="s">
-        <v>58</v>
+      <c r="AF104" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="13">
+        <v>0</v>
       </c>
       <c r="AH104" s="13">
         <v>0</v>
@@ -14831,11 +14831,11 @@
       <c r="AS104" s="13">
         <v>0</v>
       </c>
-      <c r="AT104" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU104" s="13">
-        <v>0</v>
+      <c r="AT104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV104" s="13" t="s">
         <v>58</v>
@@ -14975,11 +14975,11 @@
       <c r="AN105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP105" s="11" t="s">
-        <v>58</v>
+      <c r="AO105" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP105" s="11">
+        <v>0</v>
       </c>
       <c r="AQ105" s="11">
         <v>0</v>
@@ -14990,11 +14990,11 @@
       <c r="AS105" s="11">
         <v>0</v>
       </c>
-      <c r="AT105" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU105" s="11">
-        <v>0</v>
+      <c r="AT105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV105" s="11" t="s">
         <v>58</v>
@@ -15086,11 +15086,11 @@
       <c r="X106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z106" s="13" t="s">
-        <v>58</v>
+      <c r="Y106" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="13">
+        <v>0</v>
       </c>
       <c r="AA106" s="13">
         <v>0</v>
@@ -15144,31 +15144,31 @@
         <v>0</v>
       </c>
       <c r="AR106" s="13">
-        <v>0</v>
+        <v>4936142</v>
       </c>
       <c r="AS106" s="13">
-        <v>0</v>
+        <v>259137</v>
       </c>
       <c r="AT106" s="13">
         <v>0</v>
       </c>
       <c r="AU106" s="13">
-        <v>259137</v>
+        <v>455642</v>
       </c>
       <c r="AV106" s="13">
-        <v>0</v>
+        <v>14582</v>
       </c>
       <c r="AW106" s="13">
         <v>0</v>
       </c>
       <c r="AX106" s="13">
-        <v>14582</v>
+        <v>602723</v>
       </c>
       <c r="AY106" s="13">
         <v>0</v>
       </c>
       <c r="AZ106" s="13">
-        <v>602723</v>
+        <v>0</v>
       </c>
       <c r="BA106" s="13">
         <v>0</v>
@@ -15245,11 +15245,11 @@
       <c r="X107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z107" s="11" t="s">
-        <v>58</v>
+      <c r="Y107" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="11">
+        <v>0</v>
       </c>
       <c r="AA107" s="11">
         <v>0</v>
@@ -15303,7 +15303,7 @@
         <v>0</v>
       </c>
       <c r="AR107" s="11">
-        <v>0</v>
+        <v>1798939</v>
       </c>
       <c r="AS107" s="11">
         <v>0</v>
@@ -15312,25 +15312,25 @@
         <v>0</v>
       </c>
       <c r="AU107" s="11">
-        <v>0</v>
+        <v>146193</v>
       </c>
       <c r="AV107" s="11">
-        <v>0</v>
+        <v>79279</v>
       </c>
       <c r="AW107" s="11">
         <v>0</v>
       </c>
       <c r="AX107" s="11">
-        <v>79279</v>
+        <v>371551</v>
       </c>
       <c r="AY107" s="11">
-        <v>0</v>
+        <v>36600</v>
       </c>
       <c r="AZ107" s="11">
-        <v>371551</v>
+        <v>0</v>
       </c>
       <c r="BA107" s="11">
-        <v>36600</v>
+        <v>0</v>
       </c>
       <c r="BB107" s="11">
         <v>0</v>
@@ -15404,11 +15404,11 @@
       <c r="X108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z108" s="13" t="s">
-        <v>58</v>
+      <c r="Y108" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="13">
+        <v>0</v>
       </c>
       <c r="AA108" s="13">
         <v>0</v>
@@ -15462,16 +15462,16 @@
         <v>0</v>
       </c>
       <c r="AR108" s="13">
-        <v>0</v>
+        <v>5921602</v>
       </c>
       <c r="AS108" s="13">
-        <v>0</v>
+        <v>1348837</v>
       </c>
       <c r="AT108" s="13">
         <v>0</v>
       </c>
       <c r="AU108" s="13">
-        <v>1348837</v>
+        <v>0</v>
       </c>
       <c r="AV108" s="13">
         <v>0</v>
@@ -15479,11 +15479,11 @@
       <c r="AW108" s="13">
         <v>0</v>
       </c>
-      <c r="AX108" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY108" s="13">
-        <v>0</v>
+      <c r="AX108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY108" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ108" s="13" t="s">
         <v>58</v>
@@ -15563,11 +15563,11 @@
       <c r="X109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y109" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z109" s="11" t="s">
-        <v>58</v>
+      <c r="Y109" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="11">
+        <v>0</v>
       </c>
       <c r="AA109" s="11">
         <v>0</v>
@@ -15621,34 +15621,34 @@
         <v>0</v>
       </c>
       <c r="AR109" s="11">
-        <v>0</v>
+        <v>41385886</v>
       </c>
       <c r="AS109" s="11">
-        <v>0</v>
+        <v>3989643</v>
       </c>
       <c r="AT109" s="11">
         <v>0</v>
       </c>
       <c r="AU109" s="11">
-        <v>3989643</v>
+        <v>12005120</v>
       </c>
       <c r="AV109" s="11">
-        <v>0</v>
+        <v>8412670</v>
       </c>
       <c r="AW109" s="11">
         <v>0</v>
       </c>
       <c r="AX109" s="11">
-        <v>8412670</v>
+        <v>15838495</v>
       </c>
       <c r="AY109" s="11">
-        <v>0</v>
+        <v>3236782</v>
       </c>
       <c r="AZ109" s="11">
-        <v>15838495</v>
+        <v>0</v>
       </c>
       <c r="BA109" s="11">
-        <v>3236782</v>
+        <v>0</v>
       </c>
       <c r="BB109" s="11">
         <v>0</v>
@@ -15722,11 +15722,11 @@
       <c r="X110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z110" s="13" t="s">
-        <v>58</v>
+      <c r="Y110" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="13">
+        <v>0</v>
       </c>
       <c r="AA110" s="13">
         <v>0</v>
@@ -15797,11 +15797,11 @@
       <c r="AW110" s="13">
         <v>0</v>
       </c>
-      <c r="AX110" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY110" s="13">
-        <v>0</v>
+      <c r="AX110" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY110" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ110" s="13" t="s">
         <v>58</v>
@@ -15881,11 +15881,11 @@
       <c r="X111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y111" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z111" s="11" t="s">
-        <v>58</v>
+      <c r="Y111" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="11">
+        <v>0</v>
       </c>
       <c r="AA111" s="11">
         <v>0</v>
@@ -15956,11 +15956,11 @@
       <c r="AW111" s="11">
         <v>0</v>
       </c>
-      <c r="AX111" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY111" s="11">
-        <v>0</v>
+      <c r="AX111" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY111" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ111" s="11" t="s">
         <v>58</v>
@@ -16040,11 +16040,11 @@
       <c r="X112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z112" s="13" t="s">
-        <v>58</v>
+      <c r="Y112" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="13">
+        <v>0</v>
       </c>
       <c r="AA112" s="13">
         <v>0</v>
@@ -16115,11 +16115,11 @@
       <c r="AW112" s="13">
         <v>0</v>
       </c>
-      <c r="AX112" s="13">
-        <v>0</v>
-      </c>
-      <c r="AY112" s="13">
-        <v>0</v>
+      <c r="AX112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ112" s="13" t="s">
         <v>58</v>
@@ -16255,34 +16255,34 @@
         <v>0</v>
       </c>
       <c r="AR113" s="15">
-        <v>0</v>
+        <v>1415154891</v>
       </c>
       <c r="AS113" s="15">
-        <v>0</v>
+        <v>561155745</v>
       </c>
       <c r="AT113" s="15">
         <v>0</v>
       </c>
       <c r="AU113" s="15">
-        <v>561155745</v>
+        <v>461699384</v>
       </c>
       <c r="AV113" s="15">
-        <v>0</v>
+        <v>198288784</v>
       </c>
       <c r="AW113" s="15">
         <v>0</v>
       </c>
       <c r="AX113" s="15">
-        <v>198288784</v>
+        <v>557357957</v>
       </c>
       <c r="AY113" s="15">
-        <v>0</v>
+        <v>259245695</v>
       </c>
       <c r="AZ113" s="15">
-        <v>557357957</v>
+        <v>0</v>
       </c>
       <c r="BA113" s="15">
-        <v>208348394</v>
+        <v>0</v>
       </c>
       <c r="BB113" s="15">
         <v>0</v>
@@ -16413,11 +16413,11 @@
       <c r="X115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z115" s="11" t="s">
-        <v>58</v>
+      <c r="Y115" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="11">
+        <v>0</v>
       </c>
       <c r="AA115" s="11">
         <v>0</v>
@@ -16476,11 +16476,11 @@
       <c r="AS115" s="11">
         <v>0</v>
       </c>
-      <c r="AT115" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU115" s="11">
-        <v>0</v>
+      <c r="AT115" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU115" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV115" s="11" t="s">
         <v>58</v>
@@ -16488,17 +16488,17 @@
       <c r="AW115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY115" s="11" t="s">
-        <v>58</v>
+      <c r="AX115" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY115" s="11">
+        <v>-5496542</v>
       </c>
       <c r="AZ115" s="11">
         <v>0</v>
       </c>
       <c r="BA115" s="11">
-        <v>2328076</v>
+        <v>0</v>
       </c>
       <c r="BB115" s="11">
         <v>0</v>
@@ -16572,11 +16572,11 @@
       <c r="X116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y116" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z116" s="13" t="s">
-        <v>58</v>
+      <c r="Y116" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z116" s="13">
+        <v>0</v>
       </c>
       <c r="AA116" s="13">
         <v>0</v>
@@ -16635,11 +16635,11 @@
       <c r="AS116" s="13">
         <v>0</v>
       </c>
-      <c r="AT116" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU116" s="13">
-        <v>0</v>
+      <c r="AT116" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU116" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV116" s="13" t="s">
         <v>58</v>
@@ -16647,17 +16647,17 @@
       <c r="AW116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX116" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY116" s="13" t="s">
-        <v>58</v>
+      <c r="AX116" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY116" s="13">
+        <v>-76495450</v>
       </c>
       <c r="AZ116" s="13">
         <v>0</v>
       </c>
       <c r="BA116" s="13">
-        <v>31561136</v>
+        <v>0</v>
       </c>
       <c r="BB116" s="13">
         <v>0</v>
@@ -16806,17 +16806,17 @@
       <c r="AW117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX117" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY117" s="11" t="s">
-        <v>58</v>
+      <c r="AX117" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY117" s="11">
+        <v>-6947742</v>
       </c>
       <c r="AZ117" s="11">
         <v>0</v>
       </c>
       <c r="BA117" s="11">
-        <v>5782926</v>
+        <v>0</v>
       </c>
       <c r="BB117" s="11">
         <v>0</v>
@@ -16917,11 +16917,11 @@
       <c r="AG118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH118" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI118" s="13" t="s">
-        <v>58</v>
+      <c r="AH118" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI118" s="13">
+        <v>0</v>
       </c>
       <c r="AJ118" s="13">
         <v>0</v>
@@ -16953,11 +16953,11 @@
       <c r="AS118" s="13">
         <v>0</v>
       </c>
-      <c r="AT118" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU118" s="13">
-        <v>0</v>
+      <c r="AT118" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU118" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV118" s="13" t="s">
         <v>58</v>
@@ -17049,11 +17049,11 @@
       <c r="X119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y119" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z119" s="11" t="s">
-        <v>58</v>
+      <c r="Y119" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z119" s="11">
+        <v>0</v>
       </c>
       <c r="AA119" s="11">
         <v>0</v>
@@ -17112,11 +17112,11 @@
       <c r="AS119" s="11">
         <v>0</v>
       </c>
-      <c r="AT119" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU119" s="11">
-        <v>0</v>
+      <c r="AT119" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU119" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV119" s="11" t="s">
         <v>58</v>
@@ -17124,17 +17124,17 @@
       <c r="AW119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX119" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY119" s="11" t="s">
-        <v>58</v>
+      <c r="AX119" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY119" s="11">
+        <v>-8517802</v>
       </c>
       <c r="AZ119" s="11">
         <v>0</v>
       </c>
       <c r="BA119" s="11">
-        <v>4472968</v>
+        <v>0</v>
       </c>
       <c r="BB119" s="11">
         <v>0</v>
@@ -17235,11 +17235,11 @@
       <c r="AG120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH120" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI120" s="13" t="s">
-        <v>58</v>
+      <c r="AH120" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI120" s="13">
+        <v>0</v>
       </c>
       <c r="AJ120" s="13">
         <v>0</v>
@@ -17265,14 +17265,14 @@
       <c r="AQ120" s="13">
         <v>0</v>
       </c>
-      <c r="AR120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS120" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT120" s="13">
-        <v>0</v>
+      <c r="AR120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS120" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT120" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU120" s="13" t="s">
         <v>58</v>
@@ -17394,11 +17394,11 @@
       <c r="AG121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH121" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI121" s="11" t="s">
-        <v>58</v>
+      <c r="AH121" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI121" s="11">
+        <v>0</v>
       </c>
       <c r="AJ121" s="11">
         <v>0</v>
@@ -17415,11 +17415,11 @@
       <c r="AN121" s="11">
         <v>0</v>
       </c>
-      <c r="AO121" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP121" s="11">
-        <v>0</v>
+      <c r="AO121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP121" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ121" s="11" t="s">
         <v>58</v>
@@ -17526,11 +17526,11 @@
       <c r="X122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y122" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z122" s="13" t="s">
-        <v>58</v>
+      <c r="Y122" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z122" s="13">
+        <v>0</v>
       </c>
       <c r="AA122" s="13">
         <v>0</v>
@@ -17589,11 +17589,11 @@
       <c r="AS122" s="13">
         <v>0</v>
       </c>
-      <c r="AT122" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU122" s="13">
-        <v>0</v>
+      <c r="AT122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU122" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV122" s="13" t="s">
         <v>58</v>
@@ -17762,13 +17762,13 @@
         <v>0</v>
       </c>
       <c r="AY123" s="15">
-        <v>0</v>
+        <v>-97457536</v>
       </c>
       <c r="AZ123" s="15">
         <v>0</v>
       </c>
       <c r="BA123" s="15">
-        <v>44145106</v>
+        <v>0</v>
       </c>
       <c r="BB123" s="15">
         <v>0</v>
@@ -17899,11 +17899,11 @@
       <c r="X125" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y125" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z125" s="15" t="s">
-        <v>58</v>
+      <c r="Y125" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z125" s="15">
+        <v>0</v>
       </c>
       <c r="AA125" s="15">
         <v>0</v>
@@ -18115,11 +18115,11 @@
       <c r="X127" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y127" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z127" s="15" t="s">
-        <v>58</v>
+      <c r="Y127" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z127" s="15">
+        <v>0</v>
       </c>
       <c r="AA127" s="15">
         <v>0</v>
@@ -18331,11 +18331,11 @@
       <c r="X129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y129" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z129" s="11" t="s">
-        <v>58</v>
+      <c r="Y129" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="11">
+        <v>0</v>
       </c>
       <c r="AA129" s="11">
         <v>0</v>
@@ -18546,34 +18546,34 @@
         <v>0</v>
       </c>
       <c r="AR130" s="19">
-        <v>0</v>
+        <v>1415154891</v>
       </c>
       <c r="AS130" s="19">
-        <v>0</v>
+        <v>561155745</v>
       </c>
       <c r="AT130" s="19">
         <v>0</v>
       </c>
       <c r="AU130" s="19">
-        <v>561155745</v>
+        <v>461699384</v>
       </c>
       <c r="AV130" s="19">
-        <v>0</v>
+        <v>198288784</v>
       </c>
       <c r="AW130" s="19">
         <v>0</v>
       </c>
       <c r="AX130" s="19">
-        <v>198288784</v>
+        <v>557357957</v>
       </c>
       <c r="AY130" s="19">
-        <v>0</v>
+        <v>161788159</v>
       </c>
       <c r="AZ130" s="19">
-        <v>557357957</v>
+        <v>0</v>
       </c>
       <c r="BA130" s="19">
-        <v>252493500</v>
+        <v>0</v>
       </c>
       <c r="BB130" s="19">
         <v>0</v>
@@ -19081,11 +19081,11 @@
       <c r="X137" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y137" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z137" s="11" t="s">
-        <v>58</v>
+      <c r="Y137" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z137" s="11">
+        <v>0</v>
       </c>
       <c r="AA137" s="11">
         <v>0</v>
@@ -19139,34 +19139,34 @@
         <v>0</v>
       </c>
       <c r="AR137" s="11">
-        <v>0</v>
+        <v>114452759</v>
       </c>
       <c r="AS137" s="11">
-        <v>0</v>
+        <v>155068905</v>
       </c>
       <c r="AT137" s="11">
         <v>0</v>
       </c>
       <c r="AU137" s="11">
-        <v>155068905</v>
+        <v>184794777</v>
       </c>
       <c r="AV137" s="11">
-        <v>0</v>
+        <v>204681957</v>
       </c>
       <c r="AW137" s="11">
-        <v>0</v>
+        <v>-54339188</v>
       </c>
       <c r="AX137" s="11">
-        <v>204681957</v>
+        <v>84094017</v>
       </c>
       <c r="AY137" s="11">
-        <v>0</v>
+        <v>162163688</v>
       </c>
       <c r="AZ137" s="11">
-        <v>84094017</v>
+        <v>0</v>
       </c>
       <c r="BA137" s="11">
-        <v>153414923</v>
+        <v>0</v>
       </c>
       <c r="BB137" s="11">
         <v>0</v>
@@ -19240,11 +19240,11 @@
       <c r="X138" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y138" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z138" s="13" t="s">
-        <v>58</v>
+      <c r="Y138" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z138" s="13">
+        <v>0</v>
       </c>
       <c r="AA138" s="13">
         <v>0</v>
@@ -19298,34 +19298,34 @@
         <v>0</v>
       </c>
       <c r="AR138" s="13">
-        <v>0</v>
+        <v>113395329</v>
       </c>
       <c r="AS138" s="13">
-        <v>0</v>
+        <v>152111210</v>
       </c>
       <c r="AT138" s="13">
         <v>0</v>
       </c>
       <c r="AU138" s="13">
-        <v>152111210</v>
+        <v>208600229</v>
       </c>
       <c r="AV138" s="13">
-        <v>0</v>
+        <v>238042483</v>
       </c>
       <c r="AW138" s="13">
-        <v>0</v>
+        <v>-32799721</v>
       </c>
       <c r="AX138" s="13">
-        <v>238042483</v>
+        <v>73879004</v>
       </c>
       <c r="AY138" s="13">
-        <v>0</v>
+        <v>211693152</v>
       </c>
       <c r="AZ138" s="13">
-        <v>73879004</v>
+        <v>0</v>
       </c>
       <c r="BA138" s="13">
-        <v>213483515</v>
+        <v>0</v>
       </c>
       <c r="BB138" s="13">
         <v>0</v>
@@ -19399,11 +19399,11 @@
       <c r="X139" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y139" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z139" s="11" t="s">
-        <v>58</v>
+      <c r="Y139" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z139" s="11">
+        <v>0</v>
       </c>
       <c r="AA139" s="11">
         <v>0</v>
@@ -19457,34 +19457,34 @@
         <v>0</v>
       </c>
       <c r="AR139" s="11">
-        <v>0</v>
+        <v>77470371</v>
       </c>
       <c r="AS139" s="11">
-        <v>0</v>
+        <v>110747435</v>
       </c>
       <c r="AT139" s="11">
         <v>0</v>
       </c>
       <c r="AU139" s="11">
-        <v>110747435</v>
+        <v>110343715</v>
       </c>
       <c r="AV139" s="11">
-        <v>0</v>
+        <v>101315136</v>
       </c>
       <c r="AW139" s="11">
-        <v>0</v>
+        <v>-29879630</v>
       </c>
       <c r="AX139" s="11">
-        <v>101315136</v>
+        <v>34865083</v>
       </c>
       <c r="AY139" s="11">
-        <v>0</v>
+        <v>93390868</v>
       </c>
       <c r="AZ139" s="11">
-        <v>34865083</v>
+        <v>0</v>
       </c>
       <c r="BA139" s="11">
-        <v>93390868</v>
+        <v>0</v>
       </c>
       <c r="BB139" s="11">
         <v>0</v>
@@ -19558,11 +19558,11 @@
       <c r="X140" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y140" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z140" s="13" t="s">
-        <v>58</v>
+      <c r="Y140" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z140" s="13">
+        <v>0</v>
       </c>
       <c r="AA140" s="13">
         <v>0</v>
@@ -19616,34 +19616,34 @@
         <v>0</v>
       </c>
       <c r="AR140" s="13">
-        <v>0</v>
+        <v>13412892</v>
       </c>
       <c r="AS140" s="13">
-        <v>0</v>
+        <v>1617787655</v>
       </c>
       <c r="AT140" s="13">
         <v>0</v>
       </c>
       <c r="AU140" s="13">
-        <v>1617787655</v>
+        <v>153602850</v>
       </c>
       <c r="AV140" s="13">
-        <v>0</v>
+        <v>142428817</v>
       </c>
       <c r="AW140" s="13">
-        <v>0</v>
+        <v>-122237962</v>
       </c>
       <c r="AX140" s="13">
-        <v>142428817</v>
+        <v>119177633</v>
       </c>
       <c r="AY140" s="13">
-        <v>0</v>
+        <v>136223768</v>
       </c>
       <c r="AZ140" s="13">
-        <v>119177633</v>
+        <v>0</v>
       </c>
       <c r="BA140" s="13">
-        <v>99824584</v>
+        <v>0</v>
       </c>
       <c r="BB140" s="13">
         <v>0</v>
@@ -19717,11 +19717,11 @@
       <c r="X141" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y141" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z141" s="11" t="s">
-        <v>58</v>
+      <c r="Y141" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z141" s="11">
+        <v>0</v>
       </c>
       <c r="AA141" s="11">
         <v>0</v>
@@ -19775,34 +19775,34 @@
         <v>0</v>
       </c>
       <c r="AR141" s="11">
-        <v>0</v>
+        <v>121145481</v>
       </c>
       <c r="AS141" s="11">
-        <v>0</v>
+        <v>181909955</v>
       </c>
       <c r="AT141" s="11">
         <v>0</v>
       </c>
       <c r="AU141" s="11">
-        <v>181909955</v>
+        <v>207585076</v>
       </c>
       <c r="AV141" s="11">
-        <v>0</v>
+        <v>241039701</v>
       </c>
       <c r="AW141" s="11">
-        <v>0</v>
+        <v>-116110045</v>
       </c>
       <c r="AX141" s="11">
-        <v>241039701</v>
+        <v>151160834</v>
       </c>
       <c r="AY141" s="11">
-        <v>0</v>
+        <v>217155973</v>
       </c>
       <c r="AZ141" s="11">
-        <v>151160834</v>
+        <v>0</v>
       </c>
       <c r="BA141" s="11">
-        <v>210163440</v>
+        <v>0</v>
       </c>
       <c r="BB141" s="11">
         <v>0</v>
@@ -19876,11 +19876,11 @@
       <c r="X142" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y142" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z142" s="13" t="s">
-        <v>58</v>
+      <c r="Y142" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z142" s="13">
+        <v>0</v>
       </c>
       <c r="AA142" s="13">
         <v>0</v>
@@ -19934,34 +19934,34 @@
         <v>0</v>
       </c>
       <c r="AR142" s="13">
-        <v>0</v>
+        <v>86249331</v>
       </c>
       <c r="AS142" s="13">
-        <v>0</v>
+        <v>118174698</v>
       </c>
       <c r="AT142" s="13">
         <v>0</v>
       </c>
       <c r="AU142" s="13">
-        <v>118174698</v>
+        <v>117140434</v>
       </c>
       <c r="AV142" s="13">
-        <v>0</v>
+        <v>101261404</v>
       </c>
       <c r="AW142" s="13">
-        <v>0</v>
+        <v>-29196088</v>
       </c>
       <c r="AX142" s="13">
-        <v>101261404</v>
+        <v>38322963</v>
       </c>
       <c r="AY142" s="13">
-        <v>0</v>
+        <v>93175863</v>
       </c>
       <c r="AZ142" s="13">
-        <v>38322963</v>
+        <v>0</v>
       </c>
       <c r="BA142" s="13">
-        <v>93143181</v>
+        <v>0</v>
       </c>
       <c r="BB142" s="13">
         <v>0</v>
@@ -20035,11 +20035,11 @@
       <c r="X143" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y143" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z143" s="11" t="s">
-        <v>58</v>
+      <c r="Y143" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z143" s="11">
+        <v>0</v>
       </c>
       <c r="AA143" s="11">
         <v>0</v>
@@ -20062,17 +20062,17 @@
       <c r="AG143" s="11">
         <v>0</v>
       </c>
-      <c r="AH143" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI143" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ143" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK143" s="11" t="s">
-        <v>58</v>
+      <c r="AH143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ143" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK143" s="11">
+        <v>0</v>
       </c>
       <c r="AL143" s="11">
         <v>0</v>
@@ -20093,34 +20093,34 @@
         <v>0</v>
       </c>
       <c r="AR143" s="11">
-        <v>0</v>
+        <v>72864607</v>
       </c>
       <c r="AS143" s="11">
-        <v>0</v>
+        <v>130750473</v>
       </c>
       <c r="AT143" s="11">
         <v>0</v>
       </c>
       <c r="AU143" s="11">
-        <v>130750473</v>
+        <v>124750000</v>
       </c>
       <c r="AV143" s="11">
-        <v>0</v>
+        <v>182015914</v>
       </c>
       <c r="AW143" s="11">
-        <v>0</v>
+        <v>-36035304</v>
       </c>
       <c r="AX143" s="11">
-        <v>182015914</v>
+        <v>40185485</v>
       </c>
       <c r="AY143" s="11">
-        <v>0</v>
+        <v>35681334</v>
       </c>
       <c r="AZ143" s="11">
-        <v>40185485</v>
+        <v>0</v>
       </c>
       <c r="BA143" s="11">
-        <v>35702338</v>
+        <v>0</v>
       </c>
       <c r="BB143" s="11">
         <v>0</v>
@@ -20194,11 +20194,11 @@
       <c r="X144" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y144" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z144" s="13" t="s">
-        <v>58</v>
+      <c r="Y144" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z144" s="13">
+        <v>0</v>
       </c>
       <c r="AA144" s="13">
         <v>0</v>
@@ -20252,34 +20252,34 @@
         <v>0</v>
       </c>
       <c r="AR144" s="13">
-        <v>0</v>
+        <v>115151299</v>
       </c>
       <c r="AS144" s="13">
-        <v>0</v>
+        <v>181554649</v>
       </c>
       <c r="AT144" s="13">
         <v>0</v>
       </c>
       <c r="AU144" s="13">
-        <v>181554649</v>
+        <v>218487841</v>
       </c>
       <c r="AV144" s="13">
-        <v>0</v>
+        <v>246769803</v>
       </c>
       <c r="AW144" s="13">
-        <v>0</v>
+        <v>-65865138</v>
       </c>
       <c r="AX144" s="13">
-        <v>246769803</v>
+        <v>99948894</v>
       </c>
       <c r="AY144" s="13">
-        <v>0</v>
+        <v>219247997</v>
       </c>
       <c r="AZ144" s="13">
-        <v>99948894</v>
+        <v>0</v>
       </c>
       <c r="BA144" s="13">
-        <v>213560571</v>
+        <v>0</v>
       </c>
       <c r="BB144" s="13">
         <v>0</v>
@@ -20353,11 +20353,11 @@
       <c r="X145" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y145" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z145" s="11" t="s">
-        <v>58</v>
+      <c r="Y145" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z145" s="11">
+        <v>0</v>
       </c>
       <c r="AA145" s="11">
         <v>0</v>
@@ -20411,34 +20411,34 @@
         <v>0</v>
       </c>
       <c r="AR145" s="11">
-        <v>0</v>
+        <v>114082234</v>
       </c>
       <c r="AS145" s="11">
-        <v>0</v>
+        <v>146771386</v>
       </c>
       <c r="AT145" s="11">
         <v>0</v>
       </c>
       <c r="AU145" s="11">
-        <v>146771386</v>
+        <v>181021834</v>
       </c>
       <c r="AV145" s="11">
-        <v>0</v>
+        <v>193614144</v>
       </c>
       <c r="AW145" s="11">
-        <v>0</v>
+        <v>-58689711</v>
       </c>
       <c r="AX145" s="11">
-        <v>193614144</v>
+        <v>84098476</v>
       </c>
       <c r="AY145" s="11">
-        <v>0</v>
+        <v>166449853</v>
       </c>
       <c r="AZ145" s="11">
-        <v>84098476</v>
+        <v>0</v>
       </c>
       <c r="BA145" s="11">
-        <v>166449853</v>
+        <v>0</v>
       </c>
       <c r="BB145" s="11">
         <v>0</v>
@@ -20575,32 +20575,32 @@
       <c r="AS146" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT146" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU146" s="13" t="s">
-        <v>58</v>
+      <c r="AT146" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU146" s="13">
+        <v>129282890</v>
       </c>
       <c r="AV146" s="13">
-        <v>0</v>
+        <v>138458488</v>
       </c>
       <c r="AW146" s="13">
-        <v>0</v>
+        <v>-17178394</v>
       </c>
       <c r="AX146" s="13">
-        <v>138458488</v>
+        <v>35376026</v>
       </c>
       <c r="AY146" s="13">
         <v>0</v>
       </c>
-      <c r="AZ146" s="13">
-        <v>35376026</v>
-      </c>
-      <c r="BA146" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB146" s="13" t="s">
-        <v>58</v>
+      <c r="AZ146" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA146" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB146" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="2:54" x14ac:dyDescent="0.3">
@@ -20674,17 +20674,17 @@
       <c r="Y147" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z147" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA147" s="11" t="s">
-        <v>58</v>
+      <c r="Z147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="11">
+        <v>0</v>
       </c>
       <c r="AB147" s="11">
         <v>0</v>
       </c>
-      <c r="AC147" s="11">
-        <v>0</v>
+      <c r="AC147" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AD147" s="11">
         <v>0</v>
@@ -20692,17 +20692,17 @@
       <c r="AE147" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF147" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG147" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH147" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI147" s="11">
-        <v>0</v>
+      <c r="AF147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI147" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ147" s="11">
         <v>0</v>
@@ -20713,53 +20713,53 @@
       <c r="AL147" s="11">
         <v>0</v>
       </c>
-      <c r="AM147" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN147" s="11">
-        <v>0</v>
+      <c r="AM147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN147" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO147" s="11">
         <v>0</v>
       </c>
-      <c r="AP147" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ147" s="11">
-        <v>0</v>
+      <c r="AP147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ147" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR147" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS147" s="11" t="s">
-        <v>58</v>
+        <v>84751479</v>
+      </c>
+      <c r="AS147" s="11">
+        <v>96160000</v>
       </c>
       <c r="AT147" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AU147" s="11">
-        <v>96160000</v>
-      </c>
-      <c r="AV147" s="11" t="s">
-        <v>58</v>
+        <v>113000000</v>
+      </c>
+      <c r="AV147" s="11">
+        <v>99891304</v>
       </c>
       <c r="AW147" s="11">
-        <v>0</v>
+        <v>-36615955</v>
       </c>
       <c r="AX147" s="11">
-        <v>99891304</v>
+        <v>51645887</v>
       </c>
       <c r="AY147" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ147" s="11">
-        <v>51645887</v>
+        <v>84481481</v>
+      </c>
+      <c r="AZ147" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BA147" s="11">
-        <v>84481481</v>
-      </c>
-      <c r="BB147" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="BB147" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="2:54" x14ac:dyDescent="0.3">
@@ -20851,14 +20851,14 @@
       <c r="AE148" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF148" s="13" t="s">
-        <v>58</v>
+      <c r="AF148" s="13">
+        <v>0</v>
       </c>
       <c r="AG148" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH148" s="13">
-        <v>0</v>
+      <c r="AH148" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI148" s="13" t="s">
         <v>58</v>
@@ -21037,14 +21037,14 @@
       <c r="AN149" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO149" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP149" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ149" s="11">
-        <v>0</v>
+      <c r="AO149" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP149" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ149" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR149" s="11">
         <v>0</v>
@@ -21148,11 +21148,11 @@
       <c r="X150" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y150" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z150" s="13" t="s">
-        <v>58</v>
+      <c r="Y150" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z150" s="13">
+        <v>0</v>
       </c>
       <c r="AA150" s="13">
         <v>0</v>
@@ -21206,34 +21206,34 @@
         <v>0</v>
       </c>
       <c r="AR150" s="13">
-        <v>0</v>
+        <v>105565602</v>
       </c>
       <c r="AS150" s="13">
-        <v>0</v>
+        <v>154616348</v>
       </c>
       <c r="AT150" s="13">
         <v>0</v>
       </c>
       <c r="AU150" s="13">
-        <v>154616348</v>
+        <v>156685695</v>
       </c>
       <c r="AV150" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW150" s="13" t="s">
-        <v>58</v>
+        <v>194426667</v>
+      </c>
+      <c r="AW150" s="13">
+        <v>-36847542</v>
       </c>
       <c r="AX150" s="13">
-        <v>194426667</v>
+        <v>103343665</v>
       </c>
       <c r="AY150" s="13">
         <v>0</v>
       </c>
-      <c r="AZ150" s="13">
-        <v>103343665</v>
-      </c>
-      <c r="BA150" s="13" t="s">
-        <v>58</v>
+      <c r="AZ150" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA150" s="13">
+        <v>0</v>
       </c>
       <c r="BB150" s="13" t="s">
         <v>58</v>
@@ -21307,11 +21307,11 @@
       <c r="X151" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y151" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z151" s="11" t="s">
-        <v>58</v>
+      <c r="Y151" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z151" s="11">
+        <v>0</v>
       </c>
       <c r="AA151" s="11">
         <v>0</v>
@@ -21365,37 +21365,37 @@
         <v>0</v>
       </c>
       <c r="AR151" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS151" s="11">
-        <v>0</v>
+        <v>80435457</v>
+      </c>
+      <c r="AS151" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT151" s="11">
         <v>0</v>
       </c>
-      <c r="AU151" s="11" t="s">
-        <v>58</v>
+      <c r="AU151" s="11">
+        <v>98712357</v>
       </c>
       <c r="AV151" s="11">
-        <v>0</v>
+        <v>98483230</v>
       </c>
       <c r="AW151" s="11">
-        <v>0</v>
+        <v>-31064395</v>
       </c>
       <c r="AX151" s="11">
-        <v>98483230</v>
+        <v>68395452</v>
       </c>
       <c r="AY151" s="11">
-        <v>0</v>
+        <v>120000000</v>
       </c>
       <c r="AZ151" s="11">
-        <v>68395452</v>
+        <v>0</v>
       </c>
       <c r="BA151" s="11">
-        <v>120000000</v>
-      </c>
-      <c r="BB151" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB151" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="2:54" x14ac:dyDescent="0.3">
@@ -21466,11 +21466,11 @@
       <c r="X152" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y152" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z152" s="13" t="s">
-        <v>58</v>
+      <c r="Y152" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z152" s="13">
+        <v>0</v>
       </c>
       <c r="AA152" s="13">
         <v>0</v>
@@ -21481,11 +21481,11 @@
       <c r="AC152" s="13">
         <v>0</v>
       </c>
-      <c r="AD152" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE152" s="13">
-        <v>0</v>
+      <c r="AD152" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE152" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF152" s="13" t="s">
         <v>58</v>
@@ -21523,20 +21523,20 @@
       <c r="AQ152" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR152" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS152" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT152" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU152" s="13">
+      <c r="AR152" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS152" s="13">
         <v>128411748</v>
       </c>
-      <c r="AV152" s="13">
-        <v>0</v>
+      <c r="AT152" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU152" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV152" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW152" s="13" t="s">
         <v>58</v>
@@ -21625,11 +21625,11 @@
       <c r="X153" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y153" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z153" s="11" t="s">
-        <v>58</v>
+      <c r="Y153" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z153" s="11">
+        <v>0</v>
       </c>
       <c r="AA153" s="11">
         <v>0</v>
@@ -21683,34 +21683,34 @@
         <v>0</v>
       </c>
       <c r="AR153" s="11">
-        <v>0</v>
+        <v>92528950</v>
       </c>
       <c r="AS153" s="11">
-        <v>0</v>
+        <v>119243320</v>
       </c>
       <c r="AT153" s="11">
         <v>0</v>
       </c>
       <c r="AU153" s="11">
-        <v>119243320</v>
+        <v>147367181</v>
       </c>
       <c r="AV153" s="11">
-        <v>0</v>
+        <v>163238707</v>
       </c>
       <c r="AW153" s="11">
-        <v>0</v>
+        <v>-41270501</v>
       </c>
       <c r="AX153" s="11">
-        <v>163238707</v>
+        <v>65974761</v>
       </c>
       <c r="AY153" s="11">
-        <v>0</v>
+        <v>126018376</v>
       </c>
       <c r="AZ153" s="11">
-        <v>65974761</v>
+        <v>0</v>
       </c>
       <c r="BA153" s="11">
-        <v>126018376</v>
+        <v>0</v>
       </c>
       <c r="BB153" s="11">
         <v>0</v>
@@ -21784,11 +21784,11 @@
       <c r="X154" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y154" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z154" s="13" t="s">
-        <v>58</v>
+      <c r="Y154" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z154" s="13">
+        <v>0</v>
       </c>
       <c r="AA154" s="13">
         <v>0</v>
@@ -21844,8 +21844,8 @@
       <c r="AR154" s="13">
         <v>0</v>
       </c>
-      <c r="AS154" s="13">
-        <v>0</v>
+      <c r="AS154" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT154" s="13">
         <v>0</v>
@@ -21853,8 +21853,8 @@
       <c r="AU154" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV154" s="13">
-        <v>0</v>
+      <c r="AV154" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW154" s="13" t="s">
         <v>58</v>
@@ -21943,11 +21943,11 @@
       <c r="X155" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y155" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z155" s="11" t="s">
-        <v>58</v>
+      <c r="Y155" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z155" s="11">
+        <v>0</v>
       </c>
       <c r="AA155" s="11">
         <v>0</v>
@@ -21964,8 +21964,8 @@
       <c r="AE155" s="11">
         <v>0</v>
       </c>
-      <c r="AF155" s="11">
-        <v>0</v>
+      <c r="AF155" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG155" s="11">
         <v>0</v>
@@ -21973,14 +21973,14 @@
       <c r="AH155" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI155" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ155" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK155" s="11" t="s">
-        <v>58</v>
+      <c r="AI155" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ155" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK155" s="11">
+        <v>0</v>
       </c>
       <c r="AL155" s="11">
         <v>0</v>
@@ -21991,29 +21991,29 @@
       <c r="AN155" s="11">
         <v>0</v>
       </c>
-      <c r="AO155" s="11">
-        <v>0</v>
+      <c r="AO155" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP155" s="11">
         <v>0</v>
       </c>
-      <c r="AQ155" s="11" t="s">
-        <v>58</v>
+      <c r="AQ155" s="11">
+        <v>0</v>
       </c>
       <c r="AR155" s="11">
         <v>0</v>
       </c>
-      <c r="AS155" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT155" s="11" t="s">
-        <v>58</v>
+      <c r="AS155" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT155" s="11">
+        <v>0</v>
       </c>
       <c r="AU155" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV155" s="11">
-        <v>0</v>
+      <c r="AV155" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW155" s="11" t="s">
         <v>58</v>
@@ -22102,11 +22102,11 @@
       <c r="X156" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y156" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z156" s="13" t="s">
-        <v>58</v>
+      <c r="Y156" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z156" s="13">
+        <v>0</v>
       </c>
       <c r="AA156" s="13">
         <v>0</v>
@@ -22162,8 +22162,8 @@
       <c r="AR156" s="13">
         <v>0</v>
       </c>
-      <c r="AS156" s="13">
-        <v>0</v>
+      <c r="AS156" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT156" s="13">
         <v>0</v>
@@ -22171,8 +22171,8 @@
       <c r="AU156" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV156" s="13">
-        <v>0</v>
+      <c r="AV156" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW156" s="13" t="s">
         <v>58</v>
@@ -22393,17 +22393,17 @@
       <c r="AW158" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX158" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY158" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ158" s="11">
-        <v>0</v>
+      <c r="AX158" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY158" s="11">
+        <v>165289989</v>
+      </c>
+      <c r="AZ158" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BA158" s="11">
-        <v>152380940</v>
+        <v>0</v>
       </c>
       <c r="BB158" s="11" t="s">
         <v>58</v>
@@ -22552,17 +22552,17 @@
       <c r="AW159" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX159" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY159" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ159" s="13">
-        <v>0</v>
+      <c r="AX159" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY159" s="13">
+        <v>111216468</v>
+      </c>
+      <c r="AZ159" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA159" s="13">
-        <v>98234690</v>
+        <v>0</v>
       </c>
       <c r="BB159" s="13" t="s">
         <v>58</v>
@@ -22711,17 +22711,17 @@
       <c r="AW160" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX160" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY160" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ160" s="11">
-        <v>0</v>
+      <c r="AX160" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY160" s="11">
+        <v>198857842</v>
+      </c>
+      <c r="AZ160" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BA160" s="11">
-        <v>206069415</v>
+        <v>0</v>
       </c>
       <c r="BB160" s="11" t="s">
         <v>58</v>
@@ -22870,17 +22870,17 @@
       <c r="AW161" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX161" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY161" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ161" s="13">
-        <v>0</v>
+      <c r="AX161" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY161" s="13">
+        <v>219868381</v>
+      </c>
+      <c r="AZ161" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA161" s="13">
-        <v>215481646</v>
+        <v>0</v>
       </c>
       <c r="BB161" s="13" t="s">
         <v>58</v>
